--- a/AAII_Financials/Quarterly/RASP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RASP_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
   <si>
     <t>RASP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,77 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +778,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +825,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -895,23 +908,23 @@
       <c r="F12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="I12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
       <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
         <v>200</v>
-      </c>
-      <c r="L12" s="3">
-        <v>300</v>
       </c>
       <c r="M12" s="3">
         <v>300</v>
@@ -920,13 +933,16 @@
         <v>300</v>
       </c>
       <c r="O12" s="3">
+        <v>300</v>
+      </c>
+      <c r="P12" s="3">
         <v>400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1097,9 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1081,43 +1107,46 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
-      </c>
-      <c r="G17" s="3">
-        <v>400</v>
       </c>
       <c r="H17" s="3">
         <v>400</v>
       </c>
       <c r="I17" s="3">
+        <v>400</v>
+      </c>
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,43 +1154,46 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-400</v>
       </c>
       <c r="H18" s="3">
         <v>-400</v>
       </c>
       <c r="I18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,8 +1255,11 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,43 +1267,46 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-300</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-400</v>
       </c>
       <c r="H21" s="3">
         <v>-400</v>
       </c>
       <c r="I21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J21" s="3">
         <v>-800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1200</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1277,23 +1316,23 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1310,52 +1349,58 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-400</v>
       </c>
       <c r="H23" s="3">
         <v>-400</v>
       </c>
       <c r="I23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J23" s="3">
         <v>-800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1374,14 +1419,14 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-400</v>
       </c>
       <c r="H26" s="3">
         <v>-400</v>
       </c>
       <c r="I26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-400</v>
       </c>
       <c r="H27" s="3">
         <v>-400</v>
       </c>
       <c r="I27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1600,11 +1660,11 @@
       <c r="J29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>4</v>
+      <c r="K29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>4</v>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,52 +1819,58 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-400</v>
       </c>
       <c r="H33" s="3">
         <v>-400</v>
       </c>
       <c r="I33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-400</v>
       </c>
       <c r="H35" s="3">
         <v>-400</v>
       </c>
       <c r="I35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2052,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2144,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2067,20 +2159,20 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
       </c>
       <c r="H43" s="3">
+        <v>100</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
@@ -2088,19 +2180,22 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2238,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2158,13 +2256,13 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>200</v>
@@ -2173,7 +2271,7 @@
         <v>200</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -2184,25 +2282,28 @@
       <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
       </c>
       <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
         <v>200</v>
-      </c>
-      <c r="G46" s="3">
-        <v>300</v>
       </c>
       <c r="H46" s="3">
         <v>300</v>
@@ -2211,28 +2312,31 @@
         <v>300</v>
       </c>
       <c r="J46" s="3">
+        <v>300</v>
+      </c>
+      <c r="K46" s="3">
         <v>700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2379,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2311,16 +2418,19 @@
         <v>200</v>
       </c>
       <c r="N48" s="3">
-        <v>0</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2355,7 +2465,7 @@
         <v>4600</v>
       </c>
       <c r="N49" s="3">
-        <v>4900</v>
+        <v>4600</v>
       </c>
       <c r="O49" s="3">
         <v>4900</v>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>4900</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2661,11 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2548,13 +2673,13 @@
         <v>4900</v>
       </c>
       <c r="E54" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="F54" s="3">
         <v>5000</v>
       </c>
       <c r="G54" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="H54" s="3">
         <v>5200</v>
@@ -2563,28 +2688,31 @@
         <v>5200</v>
       </c>
       <c r="J54" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K54" s="3">
         <v>5600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2748,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1400</v>
       </c>
       <c r="G57" s="3">
         <v>1400</v>
       </c>
       <c r="H57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I57" s="3">
         <v>1300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2675,17 +2808,17 @@
         <v>300</v>
       </c>
       <c r="F58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G58" s="3">
         <v>200</v>
       </c>
       <c r="H58" s="3">
+        <v>200</v>
+      </c>
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2698,8 +2831,8 @@
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -2707,96 +2840,105 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="F59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3">
         <v>800</v>
-      </c>
-      <c r="G59" s="3">
-        <v>700</v>
       </c>
       <c r="H59" s="3">
         <v>700</v>
       </c>
       <c r="I59" s="3">
+        <v>700</v>
+      </c>
+      <c r="J59" s="3">
         <v>600</v>
-      </c>
-      <c r="J59" s="3">
-        <v>400</v>
       </c>
       <c r="K59" s="3">
         <v>400</v>
       </c>
       <c r="L59" s="3">
+        <v>400</v>
+      </c>
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3">
         <v>2600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E60" s="3">
         <v>2400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +2981,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2850,17 +2995,17 @@
       <c r="E62" s="3">
         <v>0</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -2868,11 +3013,11 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E66" s="3">
         <v>2400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-17300</v>
+        <v>-17500</v>
       </c>
       <c r="E72" s="3">
         <v>-17300</v>
       </c>
       <c r="F72" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="G72" s="3">
         <v>-17000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-16800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-16400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-16000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-15200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-14300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-10500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-9300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-8300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="E76" s="3">
         <v>2500</v>
       </c>
       <c r="F76" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G76" s="3">
         <v>2700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-400</v>
       </c>
       <c r="H81" s="3">
         <v>-400</v>
       </c>
       <c r="I81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3663,8 +3861,8 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>4</v>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,13 +4105,16 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -3907,25 +4123,25 @@
         <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-700</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-1300</v>
       </c>
       <c r="L89" s="3">
         <v>-1300</v>
       </c>
       <c r="M89" s="3">
-        <v>-800</v>
+        <v>-1300</v>
       </c>
       <c r="N89" s="3">
         <v>-800</v>
@@ -3933,11 +4149,14 @@
       <c r="O89" s="3">
         <v>-800</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4312,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4112,11 +4341,11 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -4127,11 +4356,14 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,13 +4566,16 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -4339,13 +4584,13 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -4354,22 +4599,25 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4403,8 +4651,8 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>4</v>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>4</v>
@@ -4412,8 +4660,11 @@
       <c r="P101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4433,27 +4684,30 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1200</v>
       </c>
-      <c r="P102" s="3" t="s">
+      <c r="Q102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RASP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RASP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
   <si>
     <t>RASP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,85 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,8 +789,14 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,8 +842,14 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -911,8 +939,8 @@
       <c r="G12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="3">
-        <v>100</v>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>4</v>
@@ -920,29 +948,35 @@
       <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
+      <c r="K12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L12" s="3">
+        <v>100</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
         <v>200</v>
-      </c>
-      <c r="M12" s="3">
-        <v>300</v>
-      </c>
-      <c r="N12" s="3">
-        <v>300</v>
       </c>
       <c r="O12" s="3">
         <v>300</v>
       </c>
       <c r="P12" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>300</v>
+      </c>
+      <c r="R12" s="3">
         <v>400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,31 +1022,37 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>2700</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1035,8 +1075,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,55 +1150,63 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1154,46 +1214,52 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1258,8 +1326,14 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1267,46 +1341,52 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1200</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1319,26 +1399,26 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1352,55 +1432,67 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-100</v>
       </c>
       <c r="F23" s="3">
         <v>-200</v>
       </c>
       <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1422,17 +1514,17 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1446,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-100</v>
       </c>
       <c r="F26" s="3">
         <v>-200</v>
       </c>
       <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-100</v>
       </c>
       <c r="F27" s="3">
         <v>-200</v>
       </c>
       <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1663,14 +1785,14 @@
       <c r="K29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>4</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>4</v>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1822,55 +1962,67 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-100</v>
       </c>
       <c r="F33" s="3">
         <v>-200</v>
       </c>
       <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-100</v>
       </c>
       <c r="F35" s="3">
         <v>-200</v>
       </c>
       <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,8 +2225,10 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2062,13 +2236,13 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
-      </c>
-      <c r="F41" s="3">
-        <v>100</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
@@ -2077,31 +2251,37 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>3300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>4000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>4900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,8 +2327,14 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2162,40 +2348,46 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>100</v>
-      </c>
-      <c r="H43" s="3">
-        <v>100</v>
-      </c>
-      <c r="I43" s="3">
-        <v>200</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,8 +2433,14 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2250,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2259,25 +2457,25 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>100</v>
-      </c>
-      <c r="J45" s="3">
-        <v>200</v>
-      </c>
-      <c r="K45" s="3">
-        <v>200</v>
       </c>
       <c r="L45" s="3">
         <v>200</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
@@ -2285,58 +2483,70 @@
       <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
       </c>
       <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
+        <v>100</v>
+      </c>
+      <c r="I46" s="3">
         <v>200</v>
-      </c>
-      <c r="H46" s="3">
-        <v>300</v>
-      </c>
-      <c r="I46" s="3">
-        <v>300</v>
       </c>
       <c r="J46" s="3">
         <v>300</v>
       </c>
       <c r="K46" s="3">
+        <v>300</v>
+      </c>
+      <c r="L46" s="3">
+        <v>300</v>
+      </c>
+      <c r="M46" s="3">
         <v>700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>3400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>4200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>5000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,8 +2592,14 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2421,21 +2637,27 @@
         <v>200</v>
       </c>
       <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="P48" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4600</v>
+        <v>1900</v>
       </c>
       <c r="E49" s="3">
         <v>4600</v>
@@ -2468,16 +2690,22 @@
         <v>4600</v>
       </c>
       <c r="O49" s="3">
-        <v>4900</v>
+        <v>4600</v>
       </c>
       <c r="P49" s="3">
-        <v>4900</v>
+        <v>4600</v>
       </c>
       <c r="Q49" s="3">
         <v>4900</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>4900</v>
+      </c>
+      <c r="S49" s="3">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2617,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4900</v>
+        <v>2200</v>
       </c>
       <c r="E54" s="3">
         <v>4900</v>
       </c>
       <c r="F54" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G54" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H54" s="3">
         <v>5000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>5000</v>
-      </c>
-      <c r="H54" s="3">
-        <v>5200</v>
-      </c>
-      <c r="I54" s="3">
-        <v>5200</v>
       </c>
       <c r="J54" s="3">
         <v>5200</v>
       </c>
       <c r="K54" s="3">
+        <v>5200</v>
+      </c>
+      <c r="L54" s="3">
+        <v>5200</v>
+      </c>
+      <c r="M54" s="3">
         <v>5600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>6400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>7600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>8300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>9100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>10000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,82 +3009,90 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F57" s="3">
         <v>2100</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1400</v>
-      </c>
-      <c r="F57" s="3">
-        <v>2200</v>
       </c>
       <c r="G57" s="3">
         <v>1400</v>
       </c>
       <c r="H57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I57" s="3">
         <v>1400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E58" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F58" s="3">
         <v>300</v>
       </c>
       <c r="G58" s="3">
+        <v>300</v>
+      </c>
+      <c r="H58" s="3">
+        <v>300</v>
+      </c>
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2834,72 +3102,84 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>500</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3">
         <v>2600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="E60" s="3">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="F60" s="3">
         <v>2500</v>
@@ -2908,37 +3188,43 @@
         <v>2400</v>
       </c>
       <c r="H60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J60" s="3">
         <v>2300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1300</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1500</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1600</v>
       </c>
       <c r="O60" s="3">
         <v>1500</v>
       </c>
       <c r="P60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R60" s="3">
         <v>4200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,8 +3270,14 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2998,32 +3290,32 @@
       <c r="F62" s="3">
         <v>0</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
@@ -3031,8 +3323,14 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,16 +3482,22 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="E66" s="3">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="F66" s="3">
         <v>2500</v>
@@ -3190,37 +3506,43 @@
         <v>2400</v>
       </c>
       <c r="H66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J66" s="3">
         <v>2300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1300</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1500</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1600</v>
       </c>
       <c r="O66" s="3">
         <v>1500</v>
       </c>
       <c r="P66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R66" s="3">
         <v>4200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-17500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-17300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-17300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-17000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-16800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-16400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-16000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-15200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-14300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-12300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-10500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-9300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F76" s="3">
         <v>2400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>3100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>4200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>5000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>6000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>6700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>7600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>5800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-100</v>
       </c>
       <c r="F81" s="3">
         <v>-200</v>
       </c>
       <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3864,17 +4262,23 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1300</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-800</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-800</v>
       </c>
       <c r="P89" s="3">
         <v>-800</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="R89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +4663,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4769,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4344,14 +4804,14 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -4359,11 +4819,17 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,63 +5055,75 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -4654,17 +5152,23 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>4</v>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4687,27 +5191,33 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-500</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-700</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-1300</v>
       </c>
       <c r="M102" s="3">
         <v>-700</v>
       </c>
       <c r="N102" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="O102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P102" s="3">
         <v>-800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>1200</v>
       </c>
-      <c r="Q102" s="3" t="s">
+      <c r="S102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RASP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RASP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
   <si>
     <t>RASP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -945,23 +959,23 @@
       <c r="I12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3">
         <v>100</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
       <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
         <v>200</v>
-      </c>
-      <c r="O12" s="3">
-        <v>300</v>
       </c>
       <c r="P12" s="3">
         <v>300</v>
@@ -970,13 +984,16 @@
         <v>300</v>
       </c>
       <c r="R12" s="3">
+        <v>300</v>
+      </c>
+      <c r="S12" s="3">
         <v>400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,17 +1045,20 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E14" s="3">
         <v>2700</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1054,8 +1074,8 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,61 +1178,65 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E17" s="3">
         <v>2800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>200</v>
-      </c>
-      <c r="F17" s="3">
-        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
       </c>
       <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
-      </c>
-      <c r="J17" s="3">
-        <v>400</v>
       </c>
       <c r="K17" s="3">
         <v>400</v>
       </c>
       <c r="L17" s="3">
+        <v>400</v>
+      </c>
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,52 +1244,55 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
       </c>
       <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-400</v>
       </c>
       <c r="K18" s="3">
         <v>-400</v>
       </c>
       <c r="L18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,7 +1322,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,52 +1378,55 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-200</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-100</v>
       </c>
       <c r="G21" s="3">
         <v>-100</v>
       </c>
       <c r="H21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-400</v>
       </c>
       <c r="K21" s="3">
         <v>-400</v>
       </c>
       <c r="L21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M21" s="3">
         <v>-800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1405,23 +1445,23 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1438,61 +1478,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2700</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-200</v>
       </c>
       <c r="F23" s="3">
         <v>-200</v>
       </c>
       <c r="G23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-400</v>
       </c>
       <c r="K23" s="3">
         <v>-400</v>
       </c>
       <c r="L23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1520,14 +1566,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>4</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2700</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-200</v>
       </c>
       <c r="F26" s="3">
         <v>-200</v>
       </c>
       <c r="G26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-400</v>
       </c>
       <c r="K26" s="3">
         <v>-400</v>
       </c>
       <c r="L26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2700</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-200</v>
       </c>
       <c r="F27" s="3">
         <v>-200</v>
       </c>
       <c r="G27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-400</v>
       </c>
       <c r="K27" s="3">
         <v>-400</v>
       </c>
       <c r="L27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1791,11 +1852,11 @@
       <c r="M29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>4</v>
+      <c r="N29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>4</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,7 +1994,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1968,61 +2038,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2700</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-200</v>
       </c>
       <c r="F33" s="3">
         <v>-200</v>
       </c>
       <c r="G33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-400</v>
       </c>
       <c r="K33" s="3">
         <v>-400</v>
       </c>
       <c r="L33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2700</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-200</v>
       </c>
       <c r="F35" s="3">
         <v>-200</v>
       </c>
       <c r="G35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-400</v>
       </c>
       <c r="K35" s="3">
         <v>-400</v>
       </c>
       <c r="L35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2242,46 +2329,49 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2354,20 +2447,20 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
       </c>
       <c r="K43" s="3">
+        <v>100</v>
+      </c>
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
@@ -2375,19 +2468,22 @@
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2448,11 +2547,11 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
@@ -2463,13 +2562,13 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
@@ -2478,7 +2577,7 @@
         <v>200</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
@@ -2489,34 +2588,37 @@
       <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
       </c>
       <c r="I46" s="3">
+        <v>100</v>
+      </c>
+      <c r="J46" s="3">
         <v>200</v>
-      </c>
-      <c r="J46" s="3">
-        <v>300</v>
       </c>
       <c r="K46" s="3">
         <v>300</v>
@@ -2525,28 +2627,31 @@
         <v>300</v>
       </c>
       <c r="M46" s="3">
+        <v>300</v>
+      </c>
+      <c r="N46" s="3">
         <v>700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,13 +2703,16 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
         <v>200</v>
@@ -2643,24 +2751,27 @@
         <v>200</v>
       </c>
       <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
         <v>1900</v>
-      </c>
-      <c r="E49" s="3">
-        <v>4600</v>
       </c>
       <c r="F49" s="3">
         <v>4600</v>
@@ -2696,7 +2807,7 @@
         <v>4600</v>
       </c>
       <c r="Q49" s="3">
-        <v>4900</v>
+        <v>4600</v>
       </c>
       <c r="R49" s="3">
         <v>4900</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>4900</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,16 +3039,19 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
         <v>2200</v>
-      </c>
-      <c r="E54" s="3">
-        <v>4900</v>
       </c>
       <c r="F54" s="3">
         <v>4900</v>
@@ -2934,13 +3060,13 @@
         <v>4900</v>
       </c>
       <c r="H54" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="I54" s="3">
         <v>5000</v>
       </c>
       <c r="J54" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="K54" s="3">
         <v>5200</v>
@@ -2949,28 +3075,31 @@
         <v>5200</v>
       </c>
       <c r="M54" s="3">
+        <v>5200</v>
+      </c>
+      <c r="N54" s="3">
         <v>5600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3141,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="E57" s="3">
         <v>2200</v>
       </c>
       <c r="F57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G57" s="3">
         <v>2100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1400</v>
       </c>
       <c r="J57" s="3">
         <v>1400</v>
       </c>
       <c r="K57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3076,7 +3210,7 @@
         <v>500</v>
       </c>
       <c r="F58" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G58" s="3">
         <v>300</v>
@@ -3085,17 +3219,17 @@
         <v>300</v>
       </c>
       <c r="I58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J58" s="3">
         <v>200</v>
       </c>
       <c r="K58" s="3">
+        <v>200</v>
+      </c>
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3108,8 +3242,8 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3117,13 +3251,16 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
+      <c r="D59" s="3">
+        <v>700</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>4</v>
@@ -3131,100 +3268,106 @@
       <c r="F59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G59" s="3">
-        <v>700</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3">
+        <v>900</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3">
         <v>800</v>
-      </c>
-      <c r="J59" s="3">
-        <v>700</v>
       </c>
       <c r="K59" s="3">
         <v>700</v>
       </c>
       <c r="L59" s="3">
+        <v>700</v>
+      </c>
+      <c r="M59" s="3">
         <v>600</v>
-      </c>
-      <c r="M59" s="3">
-        <v>400</v>
       </c>
       <c r="N59" s="3">
         <v>400</v>
       </c>
       <c r="O59" s="3">
+        <v>400</v>
+      </c>
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>500</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="3">
         <v>2600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E60" s="3">
         <v>2600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,13 +3419,16 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -3296,17 +3442,17 @@
       <c r="H62" s="3">
         <v>0</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
@@ -3314,11 +3460,11 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E66" s="3">
         <v>2600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-20400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-17700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-17500</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-17300</v>
       </c>
       <c r="H72" s="3">
         <v>-17300</v>
       </c>
       <c r="I72" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="J72" s="3">
         <v>-17000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-16800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-16400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-16000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-15200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-14300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-12300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-9300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-8300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2400</v>
-      </c>
-      <c r="G76" s="3">
-        <v>2500</v>
       </c>
       <c r="H76" s="3">
         <v>2500</v>
       </c>
       <c r="I76" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J76" s="3">
         <v>2700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2700</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-200</v>
       </c>
       <c r="F81" s="3">
         <v>-200</v>
       </c>
       <c r="G81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-400</v>
       </c>
       <c r="K81" s="3">
         <v>-400</v>
       </c>
       <c r="L81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4268,8 +4467,8 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>4</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,22 +4756,25 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
@@ -4566,25 +4783,25 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
       </c>
       <c r="L89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-700</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-1300</v>
       </c>
       <c r="O89" s="3">
         <v>-1300</v>
       </c>
       <c r="P89" s="3">
-        <v>-800</v>
+        <v>-1300</v>
       </c>
       <c r="Q89" s="3">
         <v>-800</v>
@@ -4592,11 +4809,14 @@
       <c r="R89" s="3">
         <v>-800</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4810,11 +5040,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -4825,11 +5055,14 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5070,13 +5316,13 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -5085,13 +5331,13 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -5100,22 +5346,25 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
+      <c r="R100" s="3">
+        <v>0</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5125,8 +5374,8 @@
       <c r="E101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -5158,8 +5407,8 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>4</v>
+      <c r="Q101" s="3">
+        <v>0</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>4</v>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5197,27 +5449,30 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1200</v>
       </c>
-      <c r="S102" s="3" t="s">
+      <c r="T102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RASP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RASP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
   <si>
     <t>RASP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,92 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +805,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -962,23 +975,23 @@
       <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3">
         <v>100</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
       <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
         <v>200</v>
-      </c>
-      <c r="P12" s="3">
-        <v>300</v>
       </c>
       <c r="Q12" s="3">
         <v>300</v>
@@ -987,13 +1000,16 @@
         <v>300</v>
       </c>
       <c r="S12" s="3">
+        <v>300</v>
+      </c>
+      <c r="T12" s="3">
         <v>400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,20 +1064,23 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>2100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2700</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1077,8 +1096,8 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,64 +1204,68 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
         <v>2300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
-      </c>
-      <c r="G17" s="3">
-        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
       <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
-      </c>
-      <c r="K17" s="3">
-        <v>400</v>
       </c>
       <c r="L17" s="3">
         <v>400</v>
       </c>
       <c r="M17" s="3">
+        <v>400</v>
+      </c>
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,55 +1273,58 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-100</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
       <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-400</v>
       </c>
       <c r="L18" s="3">
         <v>-400</v>
       </c>
       <c r="M18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,11 +1355,11 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1369,8 +1402,11 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,55 +1414,58 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-200</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-100</v>
       </c>
       <c r="H21" s="3">
         <v>-100</v>
       </c>
       <c r="I21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-400</v>
       </c>
       <c r="L21" s="3">
         <v>-400</v>
       </c>
       <c r="M21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N21" s="3">
         <v>-800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1200</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1448,23 +1487,23 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1481,64 +1520,70 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2700</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-200</v>
       </c>
       <c r="G23" s="3">
         <v>-200</v>
       </c>
       <c r="H23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-400</v>
       </c>
       <c r="L23" s="3">
         <v>-400</v>
       </c>
       <c r="M23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1569,14 +1614,14 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2700</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-200</v>
       </c>
       <c r="G26" s="3">
         <v>-200</v>
       </c>
       <c r="H26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-400</v>
       </c>
       <c r="L26" s="3">
         <v>-400</v>
       </c>
       <c r="M26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2700</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-200</v>
       </c>
       <c r="G27" s="3">
         <v>-200</v>
       </c>
       <c r="H27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-400</v>
       </c>
       <c r="L27" s="3">
         <v>-400</v>
       </c>
       <c r="M27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1855,11 +1915,11 @@
       <c r="N29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>4</v>
+      <c r="O29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>4</v>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,11 +2063,11 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2041,64 +2110,70 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2700</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-200</v>
       </c>
       <c r="G33" s="3">
         <v>-200</v>
       </c>
       <c r="H33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-400</v>
       </c>
       <c r="L33" s="3">
         <v>-400</v>
       </c>
       <c r="M33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2700</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-200</v>
       </c>
       <c r="G35" s="3">
         <v>-200</v>
       </c>
       <c r="H35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-400</v>
       </c>
       <c r="L35" s="3">
         <v>-400</v>
       </c>
       <c r="M35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2399,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2332,46 +2418,49 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2515,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2450,20 +2542,20 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
       </c>
       <c r="L43" s="3">
+        <v>100</v>
+      </c>
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
@@ -2471,19 +2563,22 @@
         <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
         <v>100</v>
       </c>
       <c r="S43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2633,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2550,11 +2648,11 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
@@ -2565,13 +2663,13 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>200</v>
@@ -2580,7 +2678,7 @@
         <v>200</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
@@ -2591,11 +2689,14 @@
       <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2603,25 +2704,25 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
       </c>
       <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
         <v>200</v>
-      </c>
-      <c r="K46" s="3">
-        <v>300</v>
       </c>
       <c r="L46" s="3">
         <v>300</v>
@@ -2630,28 +2731,31 @@
         <v>300</v>
       </c>
       <c r="N46" s="3">
+        <v>300</v>
+      </c>
+      <c r="O46" s="3">
         <v>700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2810,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2715,7 +2822,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
         <v>200</v>
@@ -2754,27 +2861,30 @@
         <v>200</v>
       </c>
       <c r="R48" s="3">
-        <v>0</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
         <v>1900</v>
-      </c>
-      <c r="F49" s="3">
-        <v>4600</v>
       </c>
       <c r="G49" s="3">
         <v>4600</v>
@@ -2810,7 +2920,7 @@
         <v>4600</v>
       </c>
       <c r="R49" s="3">
-        <v>4900</v>
+        <v>4600</v>
       </c>
       <c r="S49" s="3">
         <v>4900</v>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>4900</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3164,11 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3051,10 +3176,10 @@
         <v>0</v>
       </c>
       <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
         <v>2200</v>
-      </c>
-      <c r="F54" s="3">
-        <v>4900</v>
       </c>
       <c r="G54" s="3">
         <v>4900</v>
@@ -3063,13 +3188,13 @@
         <v>4900</v>
       </c>
       <c r="I54" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="J54" s="3">
         <v>5000</v>
       </c>
       <c r="K54" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="L54" s="3">
         <v>5200</v>
@@ -3078,28 +3203,31 @@
         <v>5200</v>
       </c>
       <c r="N54" s="3">
+        <v>5200</v>
+      </c>
+      <c r="O54" s="3">
         <v>5600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,69 +3271,73 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E57" s="3">
         <v>1500</v>
-      </c>
-      <c r="E57" s="3">
-        <v>2200</v>
       </c>
       <c r="F57" s="3">
         <v>2200</v>
       </c>
       <c r="G57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H57" s="3">
         <v>2100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1400</v>
       </c>
       <c r="K57" s="3">
         <v>1400</v>
       </c>
       <c r="L57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M57" s="3">
         <v>1300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E58" s="3">
         <v>500</v>
@@ -3213,7 +3346,7 @@
         <v>500</v>
       </c>
       <c r="G58" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H58" s="3">
         <v>300</v>
@@ -3222,17 +3355,17 @@
         <v>300</v>
       </c>
       <c r="J58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K58" s="3">
         <v>200</v>
       </c>
       <c r="L58" s="3">
+        <v>200</v>
+      </c>
+      <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3245,8 +3378,8 @@
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3254,120 +3387,129 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="3">
         <v>800</v>
-      </c>
-      <c r="K59" s="3">
-        <v>700</v>
       </c>
       <c r="L59" s="3">
         <v>700</v>
       </c>
       <c r="M59" s="3">
+        <v>700</v>
+      </c>
+      <c r="N59" s="3">
         <v>600</v>
-      </c>
-      <c r="N59" s="3">
-        <v>400</v>
       </c>
       <c r="O59" s="3">
         <v>400</v>
       </c>
       <c r="P59" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>500</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T59" s="3">
         <v>2600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E60" s="3">
         <v>2700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,16 +3564,19 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -3445,17 +3590,17 @@
       <c r="I62" s="3">
         <v>0</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
@@ -3463,11 +3608,11 @@
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E66" s="3">
         <v>2700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-22700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-20400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-17700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-17500</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-17300</v>
       </c>
       <c r="I72" s="3">
         <v>-17300</v>
       </c>
       <c r="J72" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-17000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-16800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-16400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-16000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-15200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-14300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-12300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-10500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-9300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-8300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2400</v>
-      </c>
-      <c r="H76" s="3">
-        <v>2500</v>
       </c>
       <c r="I76" s="3">
         <v>2500</v>
       </c>
       <c r="J76" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K76" s="3">
         <v>2700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2700</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-200</v>
       </c>
       <c r="G81" s="3">
         <v>-200</v>
       </c>
       <c r="H81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-400</v>
       </c>
       <c r="L81" s="3">
         <v>-400</v>
       </c>
       <c r="M81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4470,8 +4668,8 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>4</v>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4972,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4768,16 +4984,16 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
@@ -4786,25 +5002,25 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
       <c r="M89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-1300</v>
       </c>
       <c r="P89" s="3">
         <v>-1300</v>
       </c>
       <c r="Q89" s="3">
-        <v>-800</v>
+        <v>-1300</v>
       </c>
       <c r="R89" s="3">
         <v>-800</v>
@@ -4812,11 +5028,14 @@
       <c r="S89" s="3">
         <v>-800</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5043,11 +5272,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -5058,11 +5287,14 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5549,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5319,13 +5564,13 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -5334,13 +5579,13 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -5349,22 +5594,25 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>4</v>
+      <c r="S100" s="3">
+        <v>0</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5377,8 +5625,8 @@
       <c r="F101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -5410,8 +5658,8 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>4</v>
+      <c r="R101" s="3">
+        <v>0</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>4</v>
@@ -5419,8 +5667,11 @@
       <c r="T101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5452,27 +5703,30 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1200</v>
       </c>
-      <c r="T102" s="3" t="s">
+      <c r="U102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RASP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RASP_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -808,8 +812,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,13 +962,14 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3">
+        <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>4</v>
@@ -978,23 +992,23 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3">
         <v>100</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N12" s="3">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3">
         <v>100</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
       <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
         <v>200</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>300</v>
       </c>
       <c r="R12" s="3">
         <v>300</v>
@@ -1003,13 +1017,16 @@
         <v>300</v>
       </c>
       <c r="T12" s="3">
+        <v>300</v>
+      </c>
+      <c r="U12" s="3">
         <v>400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1076,14 +1096,14 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>2100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2700</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1099,8 +1119,8 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,67 +1231,71 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
-      </c>
-      <c r="H17" s="3">
-        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
       </c>
       <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
-      </c>
-      <c r="L17" s="3">
-        <v>400</v>
       </c>
       <c r="M17" s="3">
         <v>400</v>
       </c>
       <c r="N17" s="3">
+        <v>400</v>
+      </c>
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1273,58 +1303,61 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-100</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
       <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-400</v>
       </c>
       <c r="M18" s="3">
         <v>-400</v>
       </c>
       <c r="N18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1358,11 +1392,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1405,8 +1439,11 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1414,58 +1451,61 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-100</v>
       </c>
       <c r="I21" s="3">
         <v>-100</v>
       </c>
       <c r="J21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-400</v>
       </c>
       <c r="M21" s="3">
         <v>-400</v>
       </c>
       <c r="N21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O21" s="3">
         <v>-800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1200</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1490,23 +1530,23 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1523,67 +1563,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2700</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-200</v>
       </c>
       <c r="H23" s="3">
         <v>-200</v>
       </c>
       <c r="I23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-400</v>
       </c>
       <c r="M23" s="3">
         <v>-400</v>
       </c>
       <c r="N23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1617,14 +1663,14 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2700</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-200</v>
       </c>
       <c r="H26" s="3">
         <v>-200</v>
       </c>
       <c r="I26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-400</v>
       </c>
       <c r="M26" s="3">
         <v>-400</v>
       </c>
       <c r="N26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2700</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-200</v>
       </c>
       <c r="H27" s="3">
         <v>-200</v>
       </c>
       <c r="I27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-400</v>
       </c>
       <c r="M27" s="3">
         <v>-400</v>
       </c>
       <c r="N27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,31 +1935,34 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>4</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>4</v>
@@ -1918,11 +1979,11 @@
       <c r="O29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>4</v>
+      <c r="P29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>4</v>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2066,11 +2136,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2113,67 +2183,73 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2700</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-200</v>
       </c>
       <c r="H33" s="3">
         <v>-200</v>
       </c>
       <c r="I33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-400</v>
       </c>
       <c r="M33" s="3">
         <v>-400</v>
       </c>
       <c r="N33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2700</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-200</v>
       </c>
       <c r="H35" s="3">
         <v>-200</v>
       </c>
       <c r="I35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-400</v>
       </c>
       <c r="M35" s="3">
         <v>-400</v>
       </c>
       <c r="N35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,8 +2486,9 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2421,46 +2508,49 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,8 +2608,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2545,20 +2638,20 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
       </c>
       <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
@@ -2566,19 +2659,22 @@
         <v>0</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
         <v>100</v>
       </c>
       <c r="T43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,13 +2732,16 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2651,11 +2750,11 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
@@ -2666,13 +2765,13 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>200</v>
@@ -2681,7 +2780,7 @@
         <v>200</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
@@ -2692,40 +2791,43 @@
       <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
       </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
         <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
       </c>
       <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
         <v>200</v>
-      </c>
-      <c r="L46" s="3">
-        <v>300</v>
       </c>
       <c r="M46" s="3">
         <v>300</v>
@@ -2734,28 +2836,31 @@
         <v>300</v>
       </c>
       <c r="O46" s="3">
+        <v>300</v>
+      </c>
+      <c r="P46" s="3">
         <v>700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,8 +2918,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2825,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>200</v>
@@ -2864,30 +2972,33 @@
         <v>200</v>
       </c>
       <c r="S48" s="3">
-        <v>0</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
         <v>1900</v>
-      </c>
-      <c r="G49" s="3">
-        <v>4600</v>
       </c>
       <c r="H49" s="3">
         <v>4600</v>
@@ -2923,7 +3034,7 @@
         <v>4600</v>
       </c>
       <c r="S49" s="3">
-        <v>4900</v>
+        <v>4600</v>
       </c>
       <c r="T49" s="3">
         <v>4900</v>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>4900</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,22 +3290,25 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
       </c>
       <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
         <v>2200</v>
-      </c>
-      <c r="G54" s="3">
-        <v>4900</v>
       </c>
       <c r="H54" s="3">
         <v>4900</v>
@@ -3191,13 +3317,13 @@
         <v>4900</v>
       </c>
       <c r="J54" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="K54" s="3">
         <v>5000</v>
       </c>
       <c r="L54" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="M54" s="3">
         <v>5200</v>
@@ -3206,28 +3332,31 @@
         <v>5200</v>
       </c>
       <c r="O54" s="3">
+        <v>5200</v>
+      </c>
+      <c r="P54" s="3">
         <v>5600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3281,58 +3412,61 @@
         <v>2300</v>
       </c>
       <c r="E57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F57" s="3">
         <v>1500</v>
-      </c>
-      <c r="F57" s="3">
-        <v>2200</v>
       </c>
       <c r="G57" s="3">
         <v>2200</v>
       </c>
       <c r="H57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I57" s="3">
         <v>2100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1400</v>
       </c>
       <c r="L57" s="3">
         <v>1400</v>
       </c>
       <c r="M57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N57" s="3">
         <v>1300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3340,7 +3474,7 @@
         <v>600</v>
       </c>
       <c r="E58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F58" s="3">
         <v>500</v>
@@ -3349,7 +3483,7 @@
         <v>500</v>
       </c>
       <c r="H58" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I58" s="3">
         <v>300</v>
@@ -3358,17 +3492,17 @@
         <v>300</v>
       </c>
       <c r="K58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L58" s="3">
         <v>200</v>
       </c>
       <c r="M58" s="3">
+        <v>200</v>
+      </c>
+      <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3381,8 +3515,8 @@
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3390,126 +3524,135 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3">
         <v>800</v>
-      </c>
-      <c r="L59" s="3">
-        <v>700</v>
       </c>
       <c r="M59" s="3">
         <v>700</v>
       </c>
       <c r="N59" s="3">
+        <v>700</v>
+      </c>
+      <c r="O59" s="3">
         <v>600</v>
-      </c>
-      <c r="O59" s="3">
-        <v>400</v>
       </c>
       <c r="P59" s="3">
         <v>400</v>
       </c>
       <c r="Q59" s="3">
+        <v>400</v>
+      </c>
+      <c r="R59" s="3">
         <v>300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>500</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U59" s="3">
         <v>2600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E60" s="3">
         <v>2800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3567,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3578,8 +3724,8 @@
       <c r="E62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -3593,17 +3739,17 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
@@ -3611,11 +3757,11 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>4</v>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E66" s="3">
         <v>2800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-22800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-22700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-20400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-17700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-17500</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-17300</v>
       </c>
       <c r="J72" s="3">
         <v>-17300</v>
       </c>
       <c r="K72" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="L72" s="3">
         <v>-17000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-16800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-16400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-16000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-15200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-14300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-12300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-10500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-9300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-8300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,8 +4540,11 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4366,58 +4552,61 @@
         <v>-2800</v>
       </c>
       <c r="E76" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2400</v>
-      </c>
-      <c r="I76" s="3">
-        <v>2500</v>
       </c>
       <c r="J76" s="3">
         <v>2500</v>
       </c>
       <c r="K76" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L76" s="3">
         <v>2700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2700</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-200</v>
       </c>
       <c r="H81" s="3">
         <v>-200</v>
       </c>
       <c r="I81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-400</v>
       </c>
       <c r="M81" s="3">
         <v>-400</v>
       </c>
       <c r="N81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4671,8 +4870,8 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
+      <c r="S83" s="3">
+        <v>0</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>4</v>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,8 +5189,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4987,16 +5204,16 @@
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
@@ -5005,25 +5222,25 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-700</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-1300</v>
       </c>
       <c r="Q89" s="3">
         <v>-1300</v>
       </c>
       <c r="R89" s="3">
-        <v>-800</v>
+        <v>-1300</v>
       </c>
       <c r="S89" s="3">
         <v>-800</v>
@@ -5031,11 +5248,14 @@
       <c r="T89" s="3">
         <v>-800</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5275,11 +5505,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -5290,11 +5520,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,13 +5795,16 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -5567,13 +5813,13 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -5582,13 +5828,13 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -5597,22 +5843,25 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>600</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>4</v>
+      <c r="T100" s="3">
+        <v>0</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5628,8 +5877,8 @@
       <c r="G101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
@@ -5661,8 +5910,8 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>4</v>
+      <c r="S101" s="3">
+        <v>0</v>
       </c>
       <c r="T101" s="3" t="s">
         <v>4</v>
@@ -5670,8 +5919,11 @@
       <c r="U101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5706,27 +5958,30 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1200</v>
       </c>
-      <c r="U102" s="3" t="s">
+      <c r="V102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RASP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RASP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
   <si>
     <t>RASP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,16 +976,17 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>4</v>
@@ -995,23 +1009,23 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3">
         <v>100</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O12" s="3">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3">
         <v>100</v>
       </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
       <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
         <v>200</v>
-      </c>
-      <c r="R12" s="3">
-        <v>300</v>
       </c>
       <c r="S12" s="3">
         <v>300</v>
@@ -1020,13 +1034,16 @@
         <v>300</v>
       </c>
       <c r="U12" s="3">
+        <v>300</v>
+      </c>
+      <c r="V12" s="3">
         <v>400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1099,14 +1119,14 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>2100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2700</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1122,8 +1142,8 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,8 +1258,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1241,61 +1268,64 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
-      </c>
-      <c r="I17" s="3">
-        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
       </c>
       <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
-      </c>
-      <c r="M17" s="3">
-        <v>400</v>
       </c>
       <c r="N17" s="3">
         <v>400</v>
       </c>
       <c r="O17" s="3">
+        <v>400</v>
+      </c>
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,61 +1333,64 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-100</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
       </c>
       <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-400</v>
       </c>
       <c r="N18" s="3">
         <v>-400</v>
       </c>
       <c r="O18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P18" s="3">
         <v>-800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,17 +1423,17 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1442,8 +1476,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1454,58 +1491,61 @@
         <v>-200</v>
       </c>
       <c r="F21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-2300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-100</v>
       </c>
       <c r="J21" s="3">
         <v>-100</v>
       </c>
       <c r="K21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-400</v>
       </c>
       <c r="N21" s="3">
         <v>-400</v>
       </c>
       <c r="O21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P21" s="3">
         <v>-800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1200</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1533,23 +1573,23 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1566,70 +1606,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2700</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-200</v>
       </c>
       <c r="I23" s="3">
         <v>-200</v>
       </c>
       <c r="J23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-400</v>
       </c>
       <c r="N23" s="3">
         <v>-400</v>
       </c>
       <c r="O23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1666,14 +1712,14 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>4</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2700</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-200</v>
       </c>
       <c r="I26" s="3">
         <v>-200</v>
       </c>
       <c r="J26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-400</v>
       </c>
       <c r="N26" s="3">
         <v>-400</v>
       </c>
       <c r="O26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2700</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-200</v>
       </c>
       <c r="I27" s="3">
         <v>-200</v>
       </c>
       <c r="J27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-400</v>
       </c>
       <c r="N27" s="3">
         <v>-400</v>
       </c>
       <c r="O27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1964,8 +2025,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>4</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>4</v>
@@ -1982,11 +2043,11 @@
       <c r="P29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>4</v>
+      <c r="Q29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>4</v>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,17 +2203,17 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2186,70 +2256,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2700</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-200</v>
       </c>
       <c r="I33" s="3">
         <v>-200</v>
       </c>
       <c r="J33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-400</v>
       </c>
       <c r="N33" s="3">
         <v>-400</v>
       </c>
       <c r="O33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2700</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-200</v>
       </c>
       <c r="I35" s="3">
         <v>-200</v>
       </c>
       <c r="J35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-400</v>
       </c>
       <c r="N35" s="3">
         <v>-400</v>
       </c>
       <c r="O35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,13 +2573,14 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2511,46 +2598,49 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2641,20 +2734,20 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
       </c>
       <c r="N43" s="3">
+        <v>100</v>
+      </c>
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
@@ -2662,19 +2755,22 @@
         <v>0</v>
       </c>
       <c r="S43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T43" s="3">
         <v>100</v>
       </c>
       <c r="U43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,17 +2831,20 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
@@ -2753,11 +2852,11 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
@@ -2768,13 +2867,13 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>200</v>
@@ -2783,7 +2882,7 @@
         <v>200</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
@@ -2794,11 +2893,14 @@
       <c r="U45" s="3">
         <v>100</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>100</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2806,31 +2908,31 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K46" s="3">
         <v>100</v>
       </c>
       <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
         <v>200</v>
-      </c>
-      <c r="M46" s="3">
-        <v>300</v>
       </c>
       <c r="N46" s="3">
         <v>300</v>
@@ -2839,28 +2941,31 @@
         <v>300</v>
       </c>
       <c r="P46" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q46" s="3">
         <v>700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2936,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
         <v>200</v>
@@ -2975,16 +3083,19 @@
         <v>200</v>
       </c>
       <c r="T48" s="3">
-        <v>0</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
       </c>
       <c r="V48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2994,14 +3105,14 @@
       <c r="E49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
         <v>1900</v>
-      </c>
-      <c r="H49" s="3">
-        <v>4600</v>
       </c>
       <c r="I49" s="3">
         <v>4600</v>
@@ -3037,7 +3148,7 @@
         <v>4600</v>
       </c>
       <c r="T49" s="3">
-        <v>4900</v>
+        <v>4600</v>
       </c>
       <c r="U49" s="3">
         <v>4900</v>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>4900</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,8 +3416,11 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3302,16 +3428,16 @@
         <v>100</v>
       </c>
       <c r="E54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
       </c>
       <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
         <v>2200</v>
-      </c>
-      <c r="H54" s="3">
-        <v>4900</v>
       </c>
       <c r="I54" s="3">
         <v>4900</v>
@@ -3320,13 +3446,13 @@
         <v>4900</v>
       </c>
       <c r="K54" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="L54" s="3">
         <v>5000</v>
       </c>
       <c r="M54" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="N54" s="3">
         <v>5200</v>
@@ -3335,28 +3461,31 @@
         <v>5200</v>
       </c>
       <c r="P54" s="3">
+        <v>5200</v>
+      </c>
+      <c r="Q54" s="3">
         <v>5600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,81 +3533,85 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="E57" s="3">
         <v>2300</v>
       </c>
       <c r="F57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G57" s="3">
         <v>1500</v>
-      </c>
-      <c r="G57" s="3">
-        <v>2200</v>
       </c>
       <c r="H57" s="3">
         <v>2200</v>
       </c>
       <c r="I57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J57" s="3">
         <v>2100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1400</v>
       </c>
       <c r="M57" s="3">
         <v>1400</v>
       </c>
       <c r="N57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O57" s="3">
         <v>1300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E58" s="3">
         <v>600</v>
       </c>
       <c r="F58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G58" s="3">
         <v>500</v>
@@ -3486,7 +3620,7 @@
         <v>500</v>
       </c>
       <c r="I58" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="J58" s="3">
         <v>300</v>
@@ -3495,17 +3629,17 @@
         <v>300</v>
       </c>
       <c r="L58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M58" s="3">
         <v>200</v>
       </c>
       <c r="N58" s="3">
+        <v>200</v>
+      </c>
+      <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3518,8 +3652,8 @@
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -3527,8 +3661,11 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3538,121 +3675,127 @@
       <c r="E59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3">
         <v>800</v>
-      </c>
-      <c r="M59" s="3">
-        <v>700</v>
       </c>
       <c r="N59" s="3">
         <v>700</v>
       </c>
       <c r="O59" s="3">
+        <v>700</v>
+      </c>
+      <c r="P59" s="3">
         <v>600</v>
-      </c>
-      <c r="P59" s="3">
-        <v>400</v>
       </c>
       <c r="Q59" s="3">
         <v>400</v>
       </c>
       <c r="R59" s="3">
+        <v>400</v>
+      </c>
+      <c r="S59" s="3">
         <v>300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>500</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V59" s="3">
         <v>2600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3727,8 +3873,8 @@
       <c r="F62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -3742,17 +3888,17 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
@@ -3760,11 +3906,11 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>4</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-23100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-22800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-22700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-20400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-17700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-17500</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-17300</v>
       </c>
       <c r="K72" s="3">
         <v>-17300</v>
       </c>
       <c r="L72" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="M72" s="3">
         <v>-17000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-16800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-16400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-16000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-15200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-14300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-12300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-10500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-9300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-8300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="E76" s="3">
         <v>-2800</v>
       </c>
       <c r="F76" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G76" s="3">
         <v>-2700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2400</v>
-      </c>
-      <c r="J76" s="3">
-        <v>2500</v>
       </c>
       <c r="K76" s="3">
         <v>2500</v>
       </c>
       <c r="L76" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M76" s="3">
         <v>2700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2700</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-200</v>
       </c>
       <c r="I81" s="3">
         <v>-200</v>
       </c>
       <c r="J81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-400</v>
       </c>
       <c r="N81" s="3">
         <v>-400</v>
       </c>
       <c r="O81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4873,8 +5072,8 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
+      <c r="T83" s="3">
+        <v>0</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>4</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5207,16 +5424,16 @@
         <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -5225,25 +5442,25 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
       </c>
       <c r="O89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-1300</v>
       </c>
       <c r="R89" s="3">
         <v>-1300</v>
       </c>
       <c r="S89" s="3">
-        <v>-800</v>
+        <v>-1300</v>
       </c>
       <c r="T89" s="3">
         <v>-800</v>
@@ -5251,11 +5468,14 @@
       <c r="U89" s="3">
         <v>-800</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="W89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5508,11 +5738,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -5523,11 +5753,14 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,17 +6041,20 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -5816,13 +6062,13 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -5831,13 +6077,13 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -5846,27 +6092,30 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>600</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>4</v>
+      <c r="U100" s="3">
+        <v>0</v>
       </c>
       <c r="V100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>4</v>
+      <c r="D101" s="3">
+        <v>0</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>4</v>
@@ -5880,8 +6129,8 @@
       <c r="H101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
@@ -5913,8 +6162,8 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>4</v>
+      <c r="T101" s="3">
+        <v>0</v>
       </c>
       <c r="U101" s="3" t="s">
         <v>4</v>
@@ -5922,8 +6171,11 @@
       <c r="V101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5961,27 +6213,30 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1200</v>
       </c>
-      <c r="V102" s="3" t="s">
+      <c r="W102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RASP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RASP_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -822,8 +826,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,19 +990,20 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>4</v>
@@ -1012,23 +1026,23 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3">
         <v>100</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P12" s="3">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3">
         <v>100</v>
       </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
       <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
         <v>200</v>
-      </c>
-      <c r="S12" s="3">
-        <v>300</v>
       </c>
       <c r="T12" s="3">
         <v>300</v>
@@ -1037,13 +1051,16 @@
         <v>300</v>
       </c>
       <c r="V12" s="3">
+        <v>300</v>
+      </c>
+      <c r="W12" s="3">
         <v>400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,13 +1124,16 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1122,14 +1142,14 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>2100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2700</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1145,8 +1165,8 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,73 +1285,77 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
       </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
-      </c>
-      <c r="J17" s="3">
-        <v>100</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
       </c>
       <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
-      </c>
-      <c r="N17" s="3">
-        <v>400</v>
       </c>
       <c r="O17" s="3">
         <v>400</v>
       </c>
       <c r="P17" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1336,61 +1366,64 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-100</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
       </c>
       <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-400</v>
       </c>
       <c r="O18" s="3">
         <v>-400</v>
       </c>
       <c r="P18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1423,20 +1457,20 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1479,8 +1513,11 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1488,69 +1525,72 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
         <v>-200</v>
       </c>
       <c r="G21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H21" s="3">
         <v>-2300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-100</v>
       </c>
       <c r="K21" s="3">
         <v>-100</v>
       </c>
       <c r="L21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-400</v>
       </c>
       <c r="O21" s="3">
         <v>-400</v>
       </c>
       <c r="P21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1200</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1576,23 +1616,23 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1609,73 +1649,79 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2700</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-200</v>
       </c>
       <c r="J23" s="3">
         <v>-200</v>
       </c>
       <c r="K23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-400</v>
       </c>
       <c r="O23" s="3">
         <v>-400</v>
       </c>
       <c r="P23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1715,14 +1761,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>4</v>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
+      <c r="R24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2700</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-200</v>
       </c>
       <c r="J26" s="3">
         <v>-200</v>
       </c>
       <c r="K26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-400</v>
       </c>
       <c r="O26" s="3">
         <v>-400</v>
       </c>
       <c r="P26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2700</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-200</v>
       </c>
       <c r="J27" s="3">
         <v>-200</v>
       </c>
       <c r="K27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-400</v>
       </c>
       <c r="O27" s="3">
         <v>-400</v>
       </c>
       <c r="P27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2028,8 +2089,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>4</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>4</v>
@@ -2046,11 +2107,11 @@
       <c r="Q29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>4</v>
+      <c r="R29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>4</v>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2203,20 +2273,20 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2259,73 +2329,79 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2700</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-200</v>
       </c>
       <c r="J33" s="3">
         <v>-200</v>
       </c>
       <c r="K33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-400</v>
       </c>
       <c r="O33" s="3">
         <v>-400</v>
       </c>
       <c r="P33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2700</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-200</v>
       </c>
       <c r="J35" s="3">
         <v>-200</v>
       </c>
       <c r="K35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-400</v>
       </c>
       <c r="O35" s="3">
         <v>-400</v>
       </c>
       <c r="P35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,17 +2660,18 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
@@ -2601,46 +2688,49 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2737,20 +2830,20 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
       </c>
       <c r="O43" s="3">
+        <v>100</v>
+      </c>
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
@@ -2758,19 +2851,22 @@
         <v>0</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U43" s="3">
         <v>100</v>
       </c>
       <c r="V43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2843,11 +2942,11 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
@@ -2855,11 +2954,11 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
@@ -2870,13 +2969,13 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>200</v>
@@ -2885,7 +2984,7 @@
         <v>200</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
@@ -2896,46 +2995,49 @@
       <c r="V45" s="3">
         <v>100</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>100</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3">
         <v>100</v>
       </c>
       <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
         <v>200</v>
-      </c>
-      <c r="N46" s="3">
-        <v>300</v>
       </c>
       <c r="O46" s="3">
         <v>300</v>
@@ -2944,28 +3046,31 @@
         <v>300</v>
       </c>
       <c r="Q46" s="3">
+        <v>300</v>
+      </c>
+      <c r="R46" s="3">
         <v>700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3047,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I48" s="3">
         <v>200</v>
@@ -3086,16 +3194,19 @@
         <v>200</v>
       </c>
       <c r="U48" s="3">
-        <v>0</v>
-      </c>
-      <c r="V48" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3108,14 +3219,14 @@
       <c r="F49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
         <v>1900</v>
-      </c>
-      <c r="I49" s="3">
-        <v>4600</v>
       </c>
       <c r="J49" s="3">
         <v>4600</v>
@@ -3151,7 +3262,7 @@
         <v>4600</v>
       </c>
       <c r="U49" s="3">
-        <v>4900</v>
+        <v>4600</v>
       </c>
       <c r="V49" s="3">
         <v>4900</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>4900</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,28 +3542,31 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E54" s="3">
         <v>100</v>
       </c>
       <c r="F54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G54" s="3">
         <v>0</v>
       </c>
       <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
         <v>2200</v>
-      </c>
-      <c r="I54" s="3">
-        <v>4900</v>
       </c>
       <c r="J54" s="3">
         <v>4900</v>
@@ -3449,13 +3575,13 @@
         <v>4900</v>
       </c>
       <c r="L54" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="M54" s="3">
         <v>5000</v>
       </c>
       <c r="N54" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="O54" s="3">
         <v>5200</v>
@@ -3464,28 +3590,31 @@
         <v>5200</v>
       </c>
       <c r="Q54" s="3">
+        <v>5200</v>
+      </c>
+      <c r="R54" s="3">
         <v>5600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>10000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,87 +3664,91 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E57" s="3">
         <v>2200</v>
-      </c>
-      <c r="E57" s="3">
-        <v>2300</v>
       </c>
       <c r="F57" s="3">
         <v>2300</v>
       </c>
       <c r="G57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H57" s="3">
         <v>1500</v>
-      </c>
-      <c r="H57" s="3">
-        <v>2200</v>
       </c>
       <c r="I57" s="3">
         <v>2200</v>
       </c>
       <c r="J57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K57" s="3">
         <v>2100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1400</v>
       </c>
       <c r="N57" s="3">
         <v>1400</v>
       </c>
       <c r="O57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P57" s="3">
         <v>1300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>600</v>
+      </c>
+      <c r="E58" s="3">
         <v>800</v>
-      </c>
-      <c r="E58" s="3">
-        <v>600</v>
       </c>
       <c r="F58" s="3">
         <v>600</v>
       </c>
       <c r="G58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H58" s="3">
         <v>500</v>
@@ -3623,7 +3757,7 @@
         <v>500</v>
       </c>
       <c r="J58" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K58" s="3">
         <v>300</v>
@@ -3632,17 +3766,17 @@
         <v>300</v>
       </c>
       <c r="M58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N58" s="3">
         <v>200</v>
       </c>
       <c r="O58" s="3">
+        <v>200</v>
+      </c>
+      <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3655,8 +3789,8 @@
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -3664,13 +3798,16 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
+      <c r="D59" s="3">
+        <v>700</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>4</v>
@@ -3678,124 +3815,130 @@
       <c r="F59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3">
         <v>800</v>
-      </c>
-      <c r="N59" s="3">
-        <v>700</v>
       </c>
       <c r="O59" s="3">
         <v>700</v>
       </c>
       <c r="P59" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q59" s="3">
         <v>600</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>400</v>
       </c>
       <c r="R59" s="3">
         <v>400</v>
       </c>
       <c r="S59" s="3">
+        <v>400</v>
+      </c>
+      <c r="T59" s="3">
         <v>300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>500</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W59" s="3">
         <v>2600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E60" s="3">
         <v>3000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3876,8 +4022,8 @@
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
@@ -3891,17 +4037,17 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
+      <c r="P62" s="3">
+        <v>0</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
@@ -3909,11 +4055,11 @@
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>4</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E66" s="3">
         <v>3000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-23200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-23100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-22800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-22700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-20400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-17700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-17500</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-17300</v>
       </c>
       <c r="L72" s="3">
         <v>-17300</v>
       </c>
       <c r="M72" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="N72" s="3">
         <v>-17000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-16800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-16400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-15200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-14300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-12300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-10500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-9300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-8300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2900</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-2800</v>
       </c>
       <c r="F76" s="3">
         <v>-2800</v>
       </c>
       <c r="G76" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="H76" s="3">
         <v>-2700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2400</v>
-      </c>
-      <c r="K76" s="3">
-        <v>2500</v>
       </c>
       <c r="L76" s="3">
         <v>2500</v>
       </c>
       <c r="M76" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N76" s="3">
         <v>2700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>5800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2700</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-200</v>
       </c>
       <c r="J81" s="3">
         <v>-200</v>
       </c>
       <c r="K81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-400</v>
       </c>
       <c r="O81" s="3">
         <v>-400</v>
       </c>
       <c r="P81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5075,8 +5274,8 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>4</v>
+      <c r="U83" s="3">
+        <v>0</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>4</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,13 +5623,16 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
@@ -5427,16 +5644,16 @@
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -5445,25 +5662,25 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
       </c>
       <c r="P89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-700</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-1300</v>
       </c>
       <c r="S89" s="3">
         <v>-1300</v>
       </c>
       <c r="T89" s="3">
-        <v>-800</v>
+        <v>-1300</v>
       </c>
       <c r="U89" s="3">
         <v>-800</v>
@@ -5471,11 +5688,14 @@
       <c r="V89" s="3">
         <v>-800</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="X89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5741,11 +5971,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -5756,11 +5986,14 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,20 +6287,23 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -6065,13 +6311,13 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -6080,13 +6326,13 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -6095,42 +6341,45 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>600</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>4</v>
+      <c r="V100" s="3">
+        <v>0</v>
       </c>
       <c r="W100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
@@ -6165,8 +6414,8 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>4</v>
+      <c r="U101" s="3">
+        <v>0</v>
       </c>
       <c r="V101" s="3" t="s">
         <v>4</v>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6216,27 +6468,30 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1200</v>
       </c>
-      <c r="W102" s="3" t="s">
+      <c r="X102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RASP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RASP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
   <si>
     <t>RASP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,115 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -829,8 +840,17 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +917,17 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +994,17 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,16 +1029,19 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
+      <c r="E12" s="3">
+        <v>0</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -1011,8 +1052,8 @@
       <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
+      <c r="I12" s="3">
+        <v>0</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>4</v>
@@ -1029,38 +1070,47 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3">
         <v>100</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" s="3">
         <v>100</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3">
         <v>200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="W12" s="3">
         <v>300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="X12" s="3">
         <v>300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="Y12" s="3">
         <v>300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Z12" s="3">
         <v>400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="AA12" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,38 +1177,47 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>-200</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>2100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="L14" s="3">
         <v>2700</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1168,14 +1227,14 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1195,8 +1254,17 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1331,17 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,76 +1363,88 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>-200</v>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E17" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F17" s="3">
+        <v>300</v>
+      </c>
+      <c r="G17" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>100</v>
-      </c>
-      <c r="G17" s="3">
-        <v>200</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>2800</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
       </c>
       <c r="K17" s="3">
-        <v>100</v>
+        <v>2300</v>
       </c>
       <c r="L17" s="3">
-        <v>100</v>
+        <v>2800</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
       </c>
       <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="U17" s="3">
         <v>1100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="V17" s="3">
         <v>1700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="W17" s="3">
         <v>1800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="X17" s="3">
         <v>1200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="Y17" s="3">
         <v>1000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Z17" s="3">
         <v>1400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="AA17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,67 +1452,76 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
+        <v>100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-2800</v>
       </c>
       <c r="J18" s="3">
         <v>-200</v>
       </c>
       <c r="K18" s="3">
-        <v>-100</v>
+        <v>-2300</v>
       </c>
       <c r="L18" s="3">
-        <v>-100</v>
+        <v>-2800</v>
       </c>
       <c r="M18" s="3">
         <v>-200</v>
       </c>
       <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="T18" s="3">
         <v>-800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="U18" s="3">
         <v>-1100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="V18" s="3">
         <v>-1700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="W18" s="3">
         <v>-1800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="X18" s="3">
         <v>-1200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="Y18" s="3">
         <v>-1000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Z18" s="3">
         <v>-1400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="AA18" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1546,11 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1460,26 +1561,26 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1516,8 +1617,17 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1525,82 +1635,91 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G21" s="3">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-2700</v>
       </c>
       <c r="J21" s="3">
         <v>-200</v>
       </c>
       <c r="K21" s="3">
-        <v>-100</v>
+        <v>-2300</v>
       </c>
       <c r="L21" s="3">
-        <v>-100</v>
+        <v>-2700</v>
       </c>
       <c r="M21" s="3">
         <v>-200</v>
       </c>
       <c r="N21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="T21" s="3">
         <v>-800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="U21" s="3">
         <v>-1100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="V21" s="3">
         <v>-1700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="W21" s="3">
         <v>-1800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="X21" s="3">
         <v>-1200</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
@@ -1619,11 +1738,11 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1637,11 +1756,11 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1652,76 +1771,94 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>-200</v>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>300</v>
       </c>
       <c r="F23" s="3">
         <v>-300</v>
       </c>
       <c r="G23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H23" s="3">
-        <v>-2300</v>
+        <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>-2700</v>
+        <v>-300</v>
       </c>
       <c r="J23" s="3">
         <v>-200</v>
       </c>
       <c r="K23" s="3">
-        <v>-200</v>
+        <v>-2300</v>
       </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>-2700</v>
       </c>
       <c r="M23" s="3">
         <v>-200</v>
       </c>
       <c r="N23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="T23" s="3">
         <v>-800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="U23" s="3">
         <v>-1100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="V23" s="3">
         <v>-1700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="W23" s="3">
         <v>-1800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="X23" s="3">
         <v>-1200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="Y23" s="3">
         <v>-900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Z23" s="3">
         <v>-1400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="AA23" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1764,20 +1901,20 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>4</v>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3">
-        <v>0</v>
+      <c r="T24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V24" s="3">
         <v>0</v>
@@ -1788,8 +1925,17 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +2002,171 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-200</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>300</v>
       </c>
       <c r="F26" s="3">
         <v>-300</v>
       </c>
       <c r="G26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H26" s="3">
-        <v>-2300</v>
+        <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>-2700</v>
+        <v>-300</v>
       </c>
       <c r="J26" s="3">
         <v>-200</v>
       </c>
       <c r="K26" s="3">
-        <v>-200</v>
+        <v>-2300</v>
       </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>-2700</v>
       </c>
       <c r="M26" s="3">
         <v>-200</v>
       </c>
       <c r="N26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="T26" s="3">
         <v>-800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="U26" s="3">
         <v>-1100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="V26" s="3">
         <v>-1700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="W26" s="3">
         <v>-1800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="X26" s="3">
         <v>-1200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="Y26" s="3">
         <v>-900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Z26" s="3">
         <v>-1400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="AA26" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-200</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>300</v>
       </c>
       <c r="F27" s="3">
         <v>-300</v>
       </c>
       <c r="G27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H27" s="3">
-        <v>-2300</v>
+        <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>-2700</v>
+        <v>-300</v>
       </c>
       <c r="J27" s="3">
         <v>-200</v>
       </c>
       <c r="K27" s="3">
-        <v>-200</v>
+        <v>-2300</v>
       </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>-2700</v>
       </c>
       <c r="M27" s="3">
         <v>-200</v>
       </c>
       <c r="N27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="T27" s="3">
         <v>-800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="U27" s="3">
         <v>-1100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="V27" s="3">
         <v>-1700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="W27" s="3">
         <v>-1800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="X27" s="3">
         <v>-1200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="Y27" s="3">
         <v>-900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Z27" s="3">
         <v>-1400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="AA27" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2233,17 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2092,14 +2274,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>4</v>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>4</v>
@@ -2110,8 +2292,8 @@
       <c r="R29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>4</v>
@@ -2119,8 +2301,8 @@
       <c r="U29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>4</v>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>4</v>
@@ -2128,8 +2310,17 @@
       <c r="X29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2387,17 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2464,17 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2276,26 +2485,26 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2332,76 +2541,94 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-200</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>300</v>
       </c>
       <c r="F33" s="3">
         <v>-300</v>
       </c>
       <c r="G33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H33" s="3">
-        <v>-2300</v>
+        <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>-2700</v>
+        <v>-300</v>
       </c>
       <c r="J33" s="3">
         <v>-200</v>
       </c>
       <c r="K33" s="3">
-        <v>-200</v>
+        <v>-2300</v>
       </c>
       <c r="L33" s="3">
-        <v>-100</v>
+        <v>-2700</v>
       </c>
       <c r="M33" s="3">
         <v>-200</v>
       </c>
       <c r="N33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="T33" s="3">
         <v>-800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="U33" s="3">
         <v>-1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="V33" s="3">
         <v>-1700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="W33" s="3">
         <v>-1800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="X33" s="3">
         <v>-1200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="Y33" s="3">
         <v>-900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Z33" s="3">
         <v>-1400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="AA33" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2695,176 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-200</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>300</v>
       </c>
       <c r="F35" s="3">
         <v>-300</v>
       </c>
       <c r="G35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H35" s="3">
-        <v>-2300</v>
+        <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>-2700</v>
+        <v>-300</v>
       </c>
       <c r="J35" s="3">
         <v>-200</v>
       </c>
       <c r="K35" s="3">
-        <v>-200</v>
+        <v>-2300</v>
       </c>
       <c r="L35" s="3">
-        <v>-100</v>
+        <v>-2700</v>
       </c>
       <c r="M35" s="3">
         <v>-200</v>
       </c>
       <c r="N35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="T35" s="3">
         <v>-800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="U35" s="3">
         <v>-1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="V35" s="3">
         <v>-1700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="W35" s="3">
         <v>-1800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="X35" s="3">
         <v>-1200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="Y35" s="3">
         <v>-900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Z35" s="3">
         <v>-1400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="AA35" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2889,11 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,8 +2918,11 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2670,17 +2930,17 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -2691,10 +2951,10 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -2703,34 +2963,43 @@
         <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
       <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
         <v>500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="V41" s="3">
         <v>1300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="W41" s="3">
         <v>2500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="X41" s="3">
         <v>3300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="Y41" s="3">
         <v>4000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Z41" s="3">
         <v>4900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="AA41" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,19 +3066,28 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -2833,40 +3111,49 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
         <v>100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="Y43" s="3">
         <v>100</v>
       </c>
-      <c r="W43" s="3">
-        <v>0</v>
-      </c>
-      <c r="X43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,99 +3220,117 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="V45" s="3">
         <v>200</v>
-      </c>
-      <c r="T45" s="3">
-        <v>100</v>
-      </c>
-      <c r="U45" s="3">
-        <v>100</v>
-      </c>
-      <c r="V45" s="3">
-        <v>100</v>
       </c>
       <c r="W45" s="3">
         <v>100</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>0</v>
+      <c r="D46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
         <v>100</v>
-      </c>
-      <c r="F46" s="3">
-        <v>100</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
@@ -3037,40 +3342,49 @@
         <v>100</v>
       </c>
       <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="S46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="T46" s="3">
         <v>300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="U46" s="3">
         <v>700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="V46" s="3">
         <v>1500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="W46" s="3">
         <v>2700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="X46" s="3">
         <v>3400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="Y46" s="3">
         <v>4200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Z46" s="3">
         <v>5000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="AA46" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,19 +3451,28 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
+      <c r="D48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -3158,13 +3481,13 @@
         <v>0</v>
       </c>
       <c r="I48" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L48" s="3">
         <v>200</v>
@@ -3197,45 +3520,54 @@
         <v>200</v>
       </c>
       <c r="V48" s="3">
-        <v>0</v>
-      </c>
-      <c r="W48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="W48" s="3">
+        <v>200</v>
+      </c>
+      <c r="X48" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
       </c>
       <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
         <v>1900</v>
-      </c>
-      <c r="J49" s="3">
-        <v>4600</v>
-      </c>
-      <c r="K49" s="3">
-        <v>4600</v>
-      </c>
-      <c r="L49" s="3">
-        <v>4600</v>
       </c>
       <c r="M49" s="3">
         <v>4600</v>
@@ -3265,16 +3597,25 @@
         <v>4600</v>
       </c>
       <c r="V49" s="3">
+        <v>4600</v>
+      </c>
+      <c r="W49" s="3">
+        <v>4600</v>
+      </c>
+      <c r="X49" s="3">
+        <v>4600</v>
+      </c>
+      <c r="Y49" s="3">
         <v>4900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Z49" s="3">
         <v>4900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="AA49" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3682,17 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3759,17 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3836,17 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3913,94 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
         <v>100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>100</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
         <v>2200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>4900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>4900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>4900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>5000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>5000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="R54" s="3">
         <v>5200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="S54" s="3">
         <v>5200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="T54" s="3">
         <v>5200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="U54" s="3">
         <v>5600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="V54" s="3">
         <v>6400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="W54" s="3">
         <v>7600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="X54" s="3">
         <v>8300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="Y54" s="3">
         <v>9100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Z54" s="3">
         <v>10000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="AA54" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +4025,11 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,280 +4054,319 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K57" s="3">
         <v>1500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="L57" s="3">
         <v>2200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>2300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>2300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I57" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>2200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>2100</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1400</v>
       </c>
       <c r="M57" s="3">
         <v>2200</v>
       </c>
       <c r="N57" s="3">
-        <v>1400</v>
+        <v>2100</v>
       </c>
       <c r="O57" s="3">
         <v>1400</v>
       </c>
       <c r="P57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S57" s="3">
         <v>1300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="T57" s="3">
         <v>1100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="U57" s="3">
         <v>1000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="V57" s="3">
         <v>900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="W57" s="3">
         <v>1200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="X57" s="3">
         <v>1100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="Y57" s="3">
         <v>1500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Z57" s="3">
         <v>1600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="AA57" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>500</v>
+      </c>
+      <c r="F58" s="3">
+        <v>400</v>
+      </c>
+      <c r="G58" s="3">
+        <v>700</v>
+      </c>
+      <c r="H58" s="3">
+        <v>800</v>
+      </c>
+      <c r="I58" s="3">
         <v>600</v>
       </c>
-      <c r="E58" s="3">
-        <v>800</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="J58" s="3">
         <v>600</v>
       </c>
-      <c r="G58" s="3">
-        <v>600</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="K58" s="3">
         <v>500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="Q58" s="3">
         <v>200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="R58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="S58" s="3">
         <v>100</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
-      <c r="W58" s="3">
-        <v>0</v>
-      </c>
-      <c r="X58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>100</v>
+      </c>
+      <c r="F59" s="3">
+        <v>100</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" s="3">
+        <v>900</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>800</v>
+      </c>
+      <c r="R59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L59" s="3">
-        <v>900</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N59" s="3">
-        <v>800</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="S59" s="3">
         <v>700</v>
       </c>
-      <c r="P59" s="3">
-        <v>700</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="T59" s="3">
         <v>600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="U59" s="3">
         <v>400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="V59" s="3">
         <v>400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="W59" s="3">
         <v>300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="X59" s="3">
         <v>500</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z59" s="3">
         <v>2600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="AA59" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2700</v>
+        <v>1900</v>
       </c>
       <c r="E60" s="3">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="F60" s="3">
-        <v>2900</v>
+        <v>2500</v>
       </c>
       <c r="G60" s="3">
         <v>2800</v>
       </c>
       <c r="H60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K60" s="3">
         <v>2700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>2600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>2700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>2500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>2400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>2500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>2400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>2300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60" s="3">
         <v>2100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="T60" s="3">
         <v>1700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="U60" s="3">
         <v>1400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="V60" s="3">
         <v>1300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="W60" s="3">
         <v>1500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="X60" s="3">
         <v>1600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="Y60" s="3">
         <v>1500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Z60" s="3">
         <v>4200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="AA60" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,25 +4433,34 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
@@ -4031,8 +4468,8 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -4040,8 +4477,8 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -4052,14 +4489,14 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>4</v>
@@ -4067,14 +4504,23 @@
       <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>4</v>
+      <c r="W62" s="3">
+        <v>0</v>
       </c>
       <c r="X62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4587,17 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4664,17 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4741,94 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>2700</v>
+      <c r="D66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E66" s="3">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="F66" s="3">
-        <v>2900</v>
+        <v>2500</v>
       </c>
       <c r="G66" s="3">
         <v>2800</v>
       </c>
       <c r="H66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K66" s="3">
         <v>2700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>2600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>2700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>2500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>2400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>2500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>2400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>2300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>2100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="T66" s="3">
         <v>1700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="U66" s="3">
         <v>1400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="V66" s="3">
         <v>1300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="W66" s="3">
         <v>1500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="X66" s="3">
         <v>1600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="Y66" s="3">
         <v>1500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Z66" s="3">
         <v>4200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="AA66" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4853,11 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4924,17 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +5001,17 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +5078,17 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +5155,94 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-23400</v>
+        <v>-24200</v>
       </c>
       <c r="E72" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="H72" s="3">
         <v>-23200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-23100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-22800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-22700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-20400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-17700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-17500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-17300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-17300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-17000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-16800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>-16400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>-16000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="U72" s="3">
         <v>-15200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="V72" s="3">
         <v>-14300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="W72" s="3">
         <v>-12300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="X72" s="3">
         <v>-10500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="Y72" s="3">
         <v>-9300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Z72" s="3">
         <v>-8300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="AA72" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5309,17 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5386,17 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5463,94 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-2700</v>
+        <v>-1800</v>
       </c>
       <c r="E76" s="3">
-        <v>-2900</v>
+        <v>-2100</v>
       </c>
       <c r="F76" s="3">
-        <v>-2800</v>
+        <v>-2500</v>
       </c>
       <c r="G76" s="3">
         <v>-2800</v>
       </c>
       <c r="H76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K76" s="3">
         <v>-2700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>-400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>2300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>2400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>2500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>2500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>2700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>2800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>3100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="T76" s="3">
         <v>3400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="U76" s="3">
         <v>4200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="V76" s="3">
         <v>5000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="W76" s="3">
         <v>6000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="X76" s="3">
         <v>6700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="Y76" s="3">
         <v>7600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Z76" s="3">
         <v>5800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="AA76" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5617,176 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-200</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>300</v>
       </c>
       <c r="F81" s="3">
         <v>-300</v>
       </c>
       <c r="G81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H81" s="3">
-        <v>-2300</v>
+        <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>-2700</v>
+        <v>-300</v>
       </c>
       <c r="J81" s="3">
         <v>-200</v>
       </c>
       <c r="K81" s="3">
-        <v>-200</v>
+        <v>-2300</v>
       </c>
       <c r="L81" s="3">
-        <v>-100</v>
+        <v>-2700</v>
       </c>
       <c r="M81" s="3">
         <v>-200</v>
       </c>
       <c r="N81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="T81" s="3">
         <v>-800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="U81" s="3">
         <v>-1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="V81" s="3">
         <v>-1700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="W81" s="3">
         <v>-1800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="X81" s="3">
         <v>-1200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="Y81" s="3">
         <v>-900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Z81" s="3">
         <v>-1400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="AA81" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5811,11 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5277,17 +5873,26 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5959,17 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +6036,17 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +6113,17 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +6190,17 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +6267,17 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5641,13 +6291,13 @@
         <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
@@ -5659,43 +6309,52 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="U89" s="3">
         <v>-700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="V89" s="3">
         <v>-1300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="W89" s="3">
         <v>-1300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="X89" s="3">
         <v>-800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="Y89" s="3">
         <v>-800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Z89" s="3">
         <v>-800</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +6379,11 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6450,17 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6527,17 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6604,17 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5974,8 +6663,8 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -5983,17 +6672,26 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
+      <c r="V94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6716,11 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6787,17 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6864,17 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6941,17 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +7018,17 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6302,64 +7039,73 @@
         <v>100</v>
       </c>
       <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>600</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-      <c r="W100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6417,17 +7163,26 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6471,27 +7226,36 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="U102" s="3">
         <v>-700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="V102" s="3">
         <v>-1300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="W102" s="3">
         <v>-700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="X102" s="3">
         <v>-800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="Y102" s="3">
         <v>-900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Z102" s="3">
         <v>1200</v>
       </c>
-      <c r="X102" s="3" t="s">
+      <c r="AA102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RASP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RASP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
   <si>
     <t>RASP</t>
   </si>
@@ -1037,8 +1037,8 @@
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3">
+        <v>0</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -1191,23 +1191,23 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>100</v>
-      </c>
-      <c r="F14" s="3">
-        <v>200</v>
+        <v>-500</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1371,14 +1371,14 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F17" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>-100</v>
@@ -1452,10 +1452,10 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F18" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>100</v>
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F21" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="G21" s="3">
         <v>100</v>
@@ -1708,20 +1708,20 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>600</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>500</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1785,8 +1785,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-600</v>
       </c>
       <c r="E23" s="3">
         <v>300</v>
@@ -2016,8 +2016,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-600</v>
       </c>
       <c r="E26" s="3">
         <v>300</v>
@@ -2093,8 +2093,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-600</v>
       </c>
       <c r="E27" s="3">
         <v>300</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2555,8 +2555,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-600</v>
       </c>
       <c r="E33" s="3">
         <v>300</v>
@@ -2709,8 +2709,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-600</v>
       </c>
       <c r="E35" s="3">
         <v>300</v>
@@ -3311,8 +3311,8 @@
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>4</v>
+      <c r="D46" s="3">
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -4755,8 +4755,8 @@
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>1900</v>
       </c>
       <c r="E66" s="3">
         <v>2200</v>
@@ -5713,8 +5713,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-600</v>
       </c>
       <c r="E81" s="3">
         <v>300</v>

--- a/AAII_Financials/Quarterly/RASP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RASP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
   <si>
     <t>RASP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,122 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -849,8 +856,14 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -926,8 +939,14 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1022,14 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1057,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1046,20 +1073,20 @@
       <c r="F12" s="3">
         <v>0</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
+      <c r="K12" s="3">
+        <v>0</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>4</v>
@@ -1079,8 +1106,8 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R12" s="3">
-        <v>100</v>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>4</v>
@@ -1088,29 +1115,35 @@
       <c r="T12" s="3">
         <v>100</v>
       </c>
-      <c r="U12" s="3">
-        <v>0</v>
+      <c r="U12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V12" s="3">
+        <v>100</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
         <v>200</v>
-      </c>
-      <c r="W12" s="3">
-        <v>300</v>
-      </c>
-      <c r="X12" s="3">
-        <v>300</v>
       </c>
       <c r="Y12" s="3">
         <v>300</v>
       </c>
       <c r="Z12" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB12" s="3">
         <v>400</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,44 +1219,50 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-500</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>2100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>2700</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1236,11 +1275,11 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1263,8 +1302,14 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1385,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,8 +1417,10 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1375,76 +1428,82 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
       <c r="I17" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>1400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1452,76 +1511,82 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
       <c r="I18" s="3">
+        <v>100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-2800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-1100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-1700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-1800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1614,10 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1558,35 +1625,35 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1626,8 +1693,14 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1635,100 +1708,106 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="F21" s="3">
         <v>-100</v>
       </c>
       <c r="G21" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="H21" s="3">
         <v>-100</v>
       </c>
       <c r="I21" s="3">
+        <v>100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-2300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-2700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-1100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-1700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-1800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>900</v>
+      </c>
+      <c r="F22" s="3">
         <v>600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
@@ -1747,26 +1826,26 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-      <c r="W22" s="3">
-        <v>0</v>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
@@ -1780,85 +1859,97 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-100</v>
       </c>
       <c r="I23" s="3">
         <v>-300</v>
       </c>
       <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-100</v>
       </c>
       <c r="P23" s="3">
         <v>-200</v>
       </c>
       <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-1100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-1700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-1800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1910,17 +2001,17 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
-      <c r="W24" s="3">
-        <v>0</v>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X24" s="3">
         <v>0</v>
@@ -1934,8 +2025,14 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2108,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-100</v>
       </c>
       <c r="I26" s="3">
         <v>-300</v>
       </c>
       <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-100</v>
       </c>
       <c r="P26" s="3">
         <v>-200</v>
       </c>
       <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-1100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-1700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-1800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-100</v>
       </c>
       <c r="I27" s="3">
         <v>-300</v>
       </c>
       <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-100</v>
       </c>
       <c r="P27" s="3">
         <v>-200</v>
       </c>
       <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-1100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-1700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-1800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2357,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2283,11 +2404,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>4</v>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>4</v>
@@ -2301,14 +2422,14 @@
       <c r="U29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
+      <c r="V29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>4</v>
+      <c r="X29" s="3">
+        <v>0</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>4</v>
@@ -2319,8 +2440,14 @@
       <c r="AA29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2523,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2606,14 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2482,35 +2621,35 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2550,85 +2689,97 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-100</v>
       </c>
       <c r="I33" s="3">
         <v>-300</v>
       </c>
       <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-100</v>
       </c>
       <c r="P33" s="3">
         <v>-200</v>
       </c>
       <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-1100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-1700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-1800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2855,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-100</v>
       </c>
       <c r="I35" s="3">
         <v>-300</v>
       </c>
       <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-100</v>
       </c>
       <c r="P35" s="3">
         <v>-200</v>
       </c>
       <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-1100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-1700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-1800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3061,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,8 +3092,10 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2939,14 +3112,14 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -2960,13 +3133,13 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
-      </c>
-      <c r="P41" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
@@ -2975,31 +3148,37 @@
         <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
         <v>500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>1300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>2500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>3300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>4000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>4900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,19 +3254,25 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -3120,40 +3305,46 @@
         <v>0</v>
       </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>100</v>
-      </c>
-      <c r="R43" s="3">
-        <v>100</v>
-      </c>
-      <c r="S43" s="3">
-        <v>200</v>
       </c>
       <c r="T43" s="3">
         <v>100</v>
       </c>
       <c r="U43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
       </c>
       <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
         <v>100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>100</v>
       </c>
-      <c r="Z43" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,20 +3420,26 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
@@ -3250,26 +3447,26 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
@@ -3277,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>100</v>
-      </c>
-      <c r="T45" s="3">
-        <v>200</v>
-      </c>
-      <c r="U45" s="3">
-        <v>200</v>
       </c>
       <c r="V45" s="3">
         <v>200</v>
       </c>
       <c r="W45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y45" s="3">
         <v>100</v>
@@ -3303,11 +3500,17 @@
       <c r="Z45" s="3">
         <v>100</v>
       </c>
-      <c r="AA45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3315,76 +3518,82 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
       <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>100</v>
-      </c>
-      <c r="M46" s="3">
-        <v>100</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0</v>
       </c>
       <c r="O46" s="3">
         <v>100</v>
       </c>
       <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
         <v>100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3">
         <v>200</v>
-      </c>
-      <c r="R46" s="3">
-        <v>300</v>
-      </c>
-      <c r="S46" s="3">
-        <v>300</v>
       </c>
       <c r="T46" s="3">
         <v>300</v>
       </c>
       <c r="U46" s="3">
+        <v>300</v>
+      </c>
+      <c r="V46" s="3">
+        <v>300</v>
+      </c>
+      <c r="W46" s="3">
         <v>700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>2700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>3400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>4200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>5000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,19 +3669,25 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -3490,10 +3705,10 @@
         <v>0</v>
       </c>
       <c r="L48" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M48" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N48" s="3">
         <v>200</v>
@@ -3529,16 +3744,22 @@
         <v>200</v>
       </c>
       <c r="Y48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3567,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
         <v>1900</v>
-      </c>
-      <c r="M49" s="3">
-        <v>4600</v>
-      </c>
-      <c r="N49" s="3">
-        <v>4600</v>
       </c>
       <c r="O49" s="3">
         <v>4600</v>
@@ -3606,16 +3827,22 @@
         <v>4600</v>
       </c>
       <c r="Y49" s="3">
-        <v>4900</v>
+        <v>4600</v>
       </c>
       <c r="Z49" s="3">
-        <v>4900</v>
+        <v>4600</v>
       </c>
       <c r="AA49" s="3">
         <v>4900</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>4900</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3918,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +4001,14 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +4084,14 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,8 +4167,14 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3931,76 +4182,82 @@
         <v>100</v>
       </c>
       <c r="E54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G54" s="3">
         <v>0</v>
       </c>
       <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
         <v>100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>100</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
         <v>2200</v>
-      </c>
-      <c r="M54" s="3">
-        <v>4900</v>
-      </c>
-      <c r="N54" s="3">
-        <v>4900</v>
       </c>
       <c r="O54" s="3">
         <v>4900</v>
       </c>
       <c r="P54" s="3">
+        <v>4900</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>4900</v>
+      </c>
+      <c r="R54" s="3">
         <v>5000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>5000</v>
-      </c>
-      <c r="R54" s="3">
-        <v>5200</v>
-      </c>
-      <c r="S54" s="3">
-        <v>5200</v>
       </c>
       <c r="T54" s="3">
         <v>5200</v>
       </c>
       <c r="U54" s="3">
+        <v>5200</v>
+      </c>
+      <c r="V54" s="3">
+        <v>5200</v>
+      </c>
+      <c r="W54" s="3">
         <v>5600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>6400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>7600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>8300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>9100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>10000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4285,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,85 +4316,93 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F57" s="3">
         <v>1700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2100</v>
-      </c>
-      <c r="O57" s="3">
-        <v>1400</v>
-      </c>
-      <c r="P57" s="3">
-        <v>2200</v>
       </c>
       <c r="Q57" s="3">
         <v>1400</v>
       </c>
       <c r="R57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="S57" s="3">
         <v>1400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="U57" s="3">
         <v>1300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>1200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>1100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>1500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>1600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4143,56 +4410,56 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
+        <v>100</v>
+      </c>
+      <c r="F58" s="3">
+        <v>100</v>
+      </c>
+      <c r="G58" s="3">
         <v>500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>600</v>
-      </c>
-      <c r="K58" s="3">
-        <v>500</v>
-      </c>
-      <c r="L58" s="3">
-        <v>500</v>
       </c>
       <c r="M58" s="3">
         <v>500</v>
       </c>
       <c r="N58" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="O58" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="P58" s="3">
         <v>300</v>
       </c>
       <c r="Q58" s="3">
+        <v>300</v>
+      </c>
+      <c r="R58" s="3">
+        <v>300</v>
+      </c>
+      <c r="S58" s="3">
         <v>200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>100</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4202,17 +4469,23 @@
       <c r="X58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z58" s="3">
-        <v>0</v>
+      <c r="Y58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4220,114 +4493,120 @@
         <v>0</v>
       </c>
       <c r="E59" s="3">
+        <v>500</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
         <v>100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="3">
         <v>900</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="3">
         <v>800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>500</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB59" s="3">
         <v>2600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F60" s="3">
         <v>1900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2800</v>
-      </c>
-      <c r="K60" s="3">
-        <v>2700</v>
-      </c>
-      <c r="L60" s="3">
-        <v>2600</v>
       </c>
       <c r="M60" s="3">
         <v>2700</v>
       </c>
       <c r="N60" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="O60" s="3">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="P60" s="3">
         <v>2500</v>
@@ -4336,45 +4615,51 @@
         <v>2400</v>
       </c>
       <c r="R60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="S60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="T60" s="3">
         <v>2300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1300</v>
-      </c>
-      <c r="W60" s="3">
-        <v>1500</v>
-      </c>
-      <c r="X60" s="3">
-        <v>1600</v>
       </c>
       <c r="Y60" s="3">
         <v>1500</v>
       </c>
       <c r="Z60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AB60" s="3">
         <v>4200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -4442,8 +4727,14 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4468,14 +4759,14 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -4486,32 +4777,32 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>4</v>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>4</v>
+      <c r="Y62" s="3">
+        <v>0</v>
       </c>
       <c r="Z62" s="3" t="s">
         <v>4</v>
@@ -4519,8 +4810,14 @@
       <c r="AA62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4893,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4976,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,8 +5059,14 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4759,37 +5074,37 @@
         <v>1900</v>
       </c>
       <c r="E66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G66" s="3">
         <v>2200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2800</v>
-      </c>
-      <c r="K66" s="3">
-        <v>2700</v>
-      </c>
-      <c r="L66" s="3">
-        <v>2600</v>
       </c>
       <c r="M66" s="3">
         <v>2700</v>
       </c>
       <c r="N66" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="O66" s="3">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="P66" s="3">
         <v>2500</v>
@@ -4798,37 +5113,43 @@
         <v>2400</v>
       </c>
       <c r="R66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="S66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="T66" s="3">
         <v>2300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1300</v>
-      </c>
-      <c r="W66" s="3">
-        <v>1500</v>
-      </c>
-      <c r="X66" s="3">
-        <v>1600</v>
       </c>
       <c r="Y66" s="3">
         <v>1500</v>
       </c>
       <c r="Z66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AA66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AB66" s="3">
         <v>4200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5177,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5256,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5339,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5422,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5505,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-24200</v>
       </c>
-      <c r="E72" s="3">
-        <v>-23500</v>
-      </c>
       <c r="F72" s="3">
-        <v>-23800</v>
+        <v>-24200</v>
       </c>
       <c r="G72" s="3">
         <v>-23500</v>
       </c>
       <c r="H72" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="J72" s="3">
         <v>-23200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-23100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-22800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-22700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-20400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-17700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-17500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-17300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-17000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-16800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-16400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-16000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-15200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-14300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-12300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-10500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-9300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-8300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5671,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5754,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,8 +5837,14 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5481,76 +5852,82 @@
         <v>-1800</v>
       </c>
       <c r="E76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G76" s="3">
         <v>-2100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2500</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-2900</v>
       </c>
       <c r="I76" s="3">
         <v>-2800</v>
       </c>
       <c r="J76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K76" s="3">
         <v>-2800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="M76" s="3">
         <v>-2700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>2700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>2800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>3100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>3400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>4200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>5000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>6000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>6700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>7600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>5800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6003,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-100</v>
       </c>
       <c r="I81" s="3">
         <v>-300</v>
       </c>
       <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-100</v>
       </c>
       <c r="P81" s="3">
         <v>-200</v>
       </c>
       <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-1100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-1700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-1800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6209,10 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5882,17 +6279,23 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z83" s="3" t="s">
-        <v>4</v>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
       </c>
       <c r="AA83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6371,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6454,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6537,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6620,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6703,14 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6285,19 +6718,19 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
@@ -6306,55 +6739,61 @@
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-1300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-1300</v>
-      </c>
-      <c r="X89" s="3">
-        <v>-800</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>-800</v>
       </c>
       <c r="Z89" s="3">
         <v>-800</v>
       </c>
-      <c r="AA89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="AB89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="AC89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6821,10 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +6900,14 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6983,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +7066,14 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6672,14 +7131,14 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>4</v>
+      <c r="V94" s="3">
+        <v>0</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
+      <c r="X94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y94" s="3">
         <v>0</v>
@@ -6687,11 +7146,17 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7184,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7263,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7346,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7429,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7512,14 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7036,76 +7527,82 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
-      </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>600</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7172,17 +7669,23 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-      <c r="Y101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z101" s="3" t="s">
-        <v>4</v>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
       </c>
       <c r="AA101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7235,27 +7738,33 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-500</v>
-      </c>
-      <c r="U102" s="3">
-        <v>-700</v>
-      </c>
-      <c r="V102" s="3">
-        <v>-1300</v>
       </c>
       <c r="W102" s="3">
         <v>-700</v>
       </c>
       <c r="X102" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>1200</v>
       </c>
-      <c r="AA102" s="3" t="s">
+      <c r="AC102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RASP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RASP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
   <si>
     <t>RASP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,122 +665,130 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -862,8 +870,14 @@
       <c r="AC8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -945,8 +959,14 @@
       <c r="AC9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1028,8 +1048,14 @@
       <c r="AC10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1085,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1079,20 +1107,20 @@
       <c r="H12" s="3">
         <v>0</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>4</v>
+      <c r="M12" s="3">
+        <v>0</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>4</v>
@@ -1112,8 +1140,8 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T12" s="3">
-        <v>100</v>
+      <c r="T12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>4</v>
@@ -1121,29 +1149,35 @@
       <c r="V12" s="3">
         <v>100</v>
       </c>
-      <c r="W12" s="3">
-        <v>0</v>
+      <c r="W12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="3">
         <v>200</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>300</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>300</v>
       </c>
       <c r="AA12" s="3">
         <v>300</v>
       </c>
       <c r="AB12" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD12" s="3">
         <v>400</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AE12" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,50 +1259,56 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-500</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>2100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>2700</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1281,11 +1321,11 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1308,8 +1348,14 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1391,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,8 +1471,10 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1428,82 +1482,88 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
       </c>
       <c r="K17" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>1200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>1000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>1400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1511,82 +1571,88 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-4000</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
       </c>
       <c r="K18" s="3">
+        <v>100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-2300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-2800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-1100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-1400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,8 +1682,10 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1625,41 +1693,41 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1699,8 +1767,14 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1708,82 +1782,88 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>800</v>
+        <v>-4000</v>
       </c>
       <c r="F21" s="3">
         <v>-100</v>
       </c>
       <c r="G21" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="H21" s="3">
         <v>-100</v>
       </c>
       <c r="I21" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J21" s="3">
         <v>-100</v>
       </c>
       <c r="K21" s="3">
+        <v>100</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-2300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-2700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-1100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1791,29 +1871,29 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>200</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
@@ -1832,26 +1912,26 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>0</v>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z22" s="3">
         <v>0</v>
@@ -1865,8 +1945,14 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1874,90 +1960,96 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-100</v>
       </c>
       <c r="K23" s="3">
         <v>-300</v>
       </c>
       <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-2300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-100</v>
       </c>
       <c r="R23" s="3">
         <v>-200</v>
       </c>
       <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-1100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-1400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
+      <c r="E24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -2007,17 +2099,17 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>0</v>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z24" s="3">
         <v>0</v>
@@ -2031,8 +2123,14 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,8 +2212,14 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2123,82 +2227,88 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-100</v>
       </c>
       <c r="K26" s="3">
         <v>-300</v>
       </c>
       <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-2300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-100</v>
       </c>
       <c r="R26" s="3">
         <v>-200</v>
       </c>
       <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-1100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-1400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2206,82 +2316,88 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-100</v>
       </c>
       <c r="K27" s="3">
         <v>-300</v>
       </c>
       <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-2300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
       </c>
       <c r="R27" s="3">
         <v>-200</v>
       </c>
       <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-1100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-1400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2410,11 +2532,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>4</v>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>4</v>
@@ -2428,14 +2550,14 @@
       <c r="W29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
+      <c r="X29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>4</v>
+      <c r="Z29" s="3">
+        <v>0</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>4</v>
@@ -2446,8 +2568,14 @@
       <c r="AC29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,8 +2746,14 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2621,41 +2761,41 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2695,8 +2835,14 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2704,82 +2850,88 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-100</v>
       </c>
       <c r="K33" s="3">
         <v>-300</v>
       </c>
       <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-2300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
       </c>
       <c r="R33" s="3">
         <v>-200</v>
       </c>
       <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-1100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-1400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,8 +3013,14 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2870,170 +3028,182 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-100</v>
       </c>
       <c r="K35" s="3">
         <v>-300</v>
       </c>
       <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-2300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
       </c>
       <c r="R35" s="3">
         <v>-200</v>
       </c>
       <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-1100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-1400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,8 +3266,10 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3118,14 +3292,14 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -3139,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>100</v>
-      </c>
-      <c r="R41" s="3">
-        <v>100</v>
-      </c>
-      <c r="S41" s="3">
-        <v>0</v>
       </c>
       <c r="T41" s="3">
         <v>100</v>
@@ -3154,31 +3328,37 @@
         <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
         <v>500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>1300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>2500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>3300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>4000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>4900</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3260,8 +3440,14 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3311,40 +3497,46 @@
         <v>0</v>
       </c>
       <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
         <v>100</v>
-      </c>
-      <c r="T43" s="3">
-        <v>100</v>
-      </c>
-      <c r="U43" s="3">
-        <v>200</v>
       </c>
       <c r="V43" s="3">
         <v>100</v>
       </c>
       <c r="W43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y43" s="3">
         <v>0</v>
       </c>
       <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3">
         <v>100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>100</v>
       </c>
-      <c r="AB43" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3426,8 +3618,14 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3435,17 +3633,17 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
@@ -3453,26 +3651,26 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
@@ -3480,25 +3678,25 @@
         <v>0</v>
       </c>
       <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
         <v>100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>100</v>
-      </c>
-      <c r="V45" s="3">
-        <v>200</v>
-      </c>
-      <c r="W45" s="3">
-        <v>200</v>
       </c>
       <c r="X45" s="3">
         <v>200</v>
       </c>
       <c r="Y45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA45" s="3">
         <v>100</v>
@@ -3506,16 +3704,22 @@
       <c r="AB45" s="3">
         <v>100</v>
       </c>
-      <c r="AC45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
@@ -3524,76 +3728,82 @@
         <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
         <v>100</v>
-      </c>
-      <c r="O46" s="3">
-        <v>100</v>
-      </c>
-      <c r="P46" s="3">
-        <v>0</v>
       </c>
       <c r="Q46" s="3">
         <v>100</v>
       </c>
       <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
         <v>100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
+        <v>100</v>
+      </c>
+      <c r="U46" s="3">
         <v>200</v>
-      </c>
-      <c r="T46" s="3">
-        <v>300</v>
-      </c>
-      <c r="U46" s="3">
-        <v>300</v>
       </c>
       <c r="V46" s="3">
         <v>300</v>
       </c>
       <c r="W46" s="3">
+        <v>300</v>
+      </c>
+      <c r="X46" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y46" s="3">
         <v>700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>2700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>3400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>4200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>5000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3675,8 +3885,14 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3711,10 +3927,10 @@
         <v>0</v>
       </c>
       <c r="N48" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O48" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P48" s="3">
         <v>200</v>
@@ -3750,16 +3966,22 @@
         <v>200</v>
       </c>
       <c r="AA48" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3794,13 +4016,13 @@
         <v>0</v>
       </c>
       <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
         <v>1900</v>
-      </c>
-      <c r="O49" s="3">
-        <v>4600</v>
-      </c>
-      <c r="P49" s="3">
-        <v>4600</v>
       </c>
       <c r="Q49" s="3">
         <v>4600</v>
@@ -3833,16 +4055,22 @@
         <v>4600</v>
       </c>
       <c r="AA49" s="3">
-        <v>4900</v>
+        <v>4600</v>
       </c>
       <c r="AB49" s="3">
-        <v>4900</v>
+        <v>4600</v>
       </c>
       <c r="AC49" s="3">
         <v>4900</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>4900</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,8 +4241,14 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4090,8 +4330,14 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,13 +4419,19 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E54" s="3">
         <v>100</v>
@@ -4188,76 +4440,82 @@
         <v>100</v>
       </c>
       <c r="G54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I54" s="3">
         <v>0</v>
       </c>
       <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
         <v>100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>100</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
       <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
         <v>2200</v>
-      </c>
-      <c r="O54" s="3">
-        <v>4900</v>
-      </c>
-      <c r="P54" s="3">
-        <v>4900</v>
       </c>
       <c r="Q54" s="3">
         <v>4900</v>
       </c>
       <c r="R54" s="3">
+        <v>4900</v>
+      </c>
+      <c r="S54" s="3">
+        <v>4900</v>
+      </c>
+      <c r="T54" s="3">
         <v>5000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>5000</v>
-      </c>
-      <c r="T54" s="3">
-        <v>5200</v>
-      </c>
-      <c r="U54" s="3">
-        <v>5200</v>
       </c>
       <c r="V54" s="3">
         <v>5200</v>
       </c>
       <c r="W54" s="3">
+        <v>5200</v>
+      </c>
+      <c r="X54" s="3">
+        <v>5200</v>
+      </c>
+      <c r="Y54" s="3">
         <v>5600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>6400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>7600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>8300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>9100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>10000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,154 +4578,162 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F57" s="3">
         <v>1600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2100</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>1400</v>
-      </c>
-      <c r="R57" s="3">
-        <v>2200</v>
       </c>
       <c r="S57" s="3">
         <v>1400</v>
       </c>
       <c r="T57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="U57" s="3">
         <v>1400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W57" s="3">
         <v>1300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>1100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>1000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>1200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>1100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>1500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>1600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
       </c>
       <c r="G58" s="3">
+        <v>100</v>
+      </c>
+      <c r="H58" s="3">
+        <v>100</v>
+      </c>
+      <c r="I58" s="3">
         <v>500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>600</v>
-      </c>
-      <c r="M58" s="3">
-        <v>500</v>
-      </c>
-      <c r="N58" s="3">
-        <v>500</v>
       </c>
       <c r="O58" s="3">
         <v>500</v>
       </c>
       <c r="P58" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q58" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="R58" s="3">
         <v>300</v>
       </c>
       <c r="S58" s="3">
+        <v>300</v>
+      </c>
+      <c r="T58" s="3">
+        <v>300</v>
+      </c>
+      <c r="U58" s="3">
         <v>200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>100</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4475,17 +4743,23 @@
       <c r="Z58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA58" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB58" s="3">
-        <v>0</v>
+      <c r="AA58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4493,126 +4767,132 @@
         <v>0</v>
       </c>
       <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="3">
         <v>900</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U59" s="3">
         <v>800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>500</v>
       </c>
-      <c r="AA59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD59" s="3">
         <v>2600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F60" s="3">
         <v>1800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2800</v>
-      </c>
-      <c r="M60" s="3">
-        <v>2700</v>
-      </c>
-      <c r="N60" s="3">
-        <v>2600</v>
       </c>
       <c r="O60" s="3">
         <v>2700</v>
       </c>
       <c r="P60" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="Q60" s="3">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="R60" s="3">
         <v>2500</v>
@@ -4621,52 +4901,58 @@
         <v>2400</v>
       </c>
       <c r="T60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="U60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="V60" s="3">
         <v>2300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>2100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>1300</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>1500</v>
-      </c>
-      <c r="Z60" s="3">
-        <v>1600</v>
       </c>
       <c r="AA60" s="3">
         <v>1500</v>
       </c>
       <c r="AB60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AD60" s="3">
         <v>4200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>100</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -4733,8 +5019,14 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4765,14 +5057,14 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -4783,32 +5075,32 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
+      <c r="S62" s="3">
+        <v>0</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
-      </c>
-      <c r="V62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W62" s="3" t="s">
-        <v>4</v>
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
       </c>
       <c r="X62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y62" s="3">
-        <v>0</v>
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA62" s="3" t="s">
-        <v>4</v>
+      <c r="AA62" s="3">
+        <v>0</v>
       </c>
       <c r="AB62" s="3" t="s">
         <v>4</v>
@@ -4816,8 +5108,14 @@
       <c r="AC62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,52 +5375,58 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1900</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1800</v>
       </c>
       <c r="F66" s="3">
         <v>1900</v>
       </c>
       <c r="G66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I66" s="3">
         <v>2200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2800</v>
-      </c>
-      <c r="M66" s="3">
-        <v>2700</v>
-      </c>
-      <c r="N66" s="3">
-        <v>2600</v>
       </c>
       <c r="O66" s="3">
         <v>2700</v>
       </c>
       <c r="P66" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="Q66" s="3">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="R66" s="3">
         <v>2500</v>
@@ -5119,37 +5435,43 @@
         <v>2400</v>
       </c>
       <c r="T66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="U66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="V66" s="3">
         <v>2300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>2100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1300</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>1500</v>
-      </c>
-      <c r="Z66" s="3">
-        <v>1600</v>
       </c>
       <c r="AA66" s="3">
         <v>1500</v>
       </c>
       <c r="AB66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AC66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AD66" s="3">
         <v>4200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-28600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-24400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-24200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-24200</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-23500</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-23800</v>
       </c>
       <c r="I72" s="3">
         <v>-23500</v>
       </c>
       <c r="J72" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="L72" s="3">
         <v>-23200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-23100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-22800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-22700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-20400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-17700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-17500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-17300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-17300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-17000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-16800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-16400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-16000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-15200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-14300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-12300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-10500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-9300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-8300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-1800</v>
+        <v>-2000</v>
       </c>
       <c r="E76" s="3">
-        <v>-1700</v>
+        <v>-1900</v>
       </c>
       <c r="F76" s="3">
         <v>-1800</v>
       </c>
       <c r="G76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I76" s="3">
         <v>-2100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-2500</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-2900</v>
       </c>
       <c r="K76" s="3">
         <v>-2800</v>
       </c>
       <c r="L76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="M76" s="3">
         <v>-2800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="O76" s="3">
         <v>-2700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>2500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>2500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>2700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>2800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>3100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>3400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>4200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>5000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>6000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>6700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>7600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>5800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,96 +6387,108 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6106,82 +6496,88 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-100</v>
       </c>
       <c r="K81" s="3">
         <v>-300</v>
       </c>
       <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-2300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
       </c>
       <c r="R81" s="3">
         <v>-200</v>
       </c>
       <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-1100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-1400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6607,10 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6285,17 +6683,23 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB83" s="3" t="s">
-        <v>4</v>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="3">
+        <v>0</v>
       </c>
       <c r="AC83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,8 +7137,14 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6718,25 +7152,25 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
@@ -6745,55 +7179,61 @@
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-1300</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>-800</v>
-      </c>
-      <c r="AA89" s="3">
-        <v>-800</v>
       </c>
       <c r="AB89" s="3">
         <v>-800</v>
       </c>
-      <c r="AC89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="AD89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="AE89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,8 +7263,10 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6906,8 +7348,14 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,8 +7526,14 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7137,14 +7597,14 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>4</v>
+      <c r="X94" s="3">
+        <v>0</v>
       </c>
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
+      <c r="Z94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA94" s="3">
         <v>0</v>
@@ -7152,11 +7612,17 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-      <c r="AC94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,8 +8004,14 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7527,82 +8019,88 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
-      </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>600</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7675,17 +8173,23 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-      <c r="AA101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB101" s="3" t="s">
-        <v>4</v>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>0</v>
       </c>
       <c r="AC101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7744,27 +8248,33 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-500</v>
-      </c>
-      <c r="W102" s="3">
-        <v>-700</v>
-      </c>
-      <c r="X102" s="3">
-        <v>-1300</v>
       </c>
       <c r="Y102" s="3">
         <v>-700</v>
       </c>
       <c r="Z102" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="AA102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>1200</v>
       </c>
-      <c r="AC102" s="3" t="s">
+      <c r="AE102" s="3" t="s">
         <v>4</v>
       </c>
     </row>
